--- a/2019/raw_data.xlsx
+++ b/2019/raw_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benderas/Documents/Fantasy Football/sjp-ff/2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benderas/Documents/Fantasy Football/sjp_ff/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E1DC9F-2EAB-8C48-BB10-DF193D81B7F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E401EBCC-3C41-DC41-9287-13BF15AAE7AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{62FDE660-994C-4E09-867A-A02DEE0C0AFF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18560" xr2:uid="{62FDE660-994C-4E09-867A-A02DEE0C0AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1060,16 +1060,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1136,19 +1129,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1467,14 +1459,13 @@
   <dimension ref="A1:K301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G288" sqref="G288"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.83203125" style="5" customWidth="1"/>
     <col min="2" max="5" width="8.83203125" style="5"/>
-    <col min="6" max="6" width="8.83203125" style="6"/>
     <col min="7" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -1489,12 +1480,11 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
@@ -1507,12 +1497,11 @@
         <v>194</v>
       </c>
       <c r="D2" s="3">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3">
         <v>276.10000000000002</v>
       </c>
-      <c r="E2" s="3">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
@@ -1526,12 +1515,11 @@
         <v>194</v>
       </c>
       <c r="D3" s="3">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
         <v>251.4</v>
       </c>
-      <c r="E3" s="3">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
@@ -1544,12 +1532,11 @@
         <v>194</v>
       </c>
       <c r="D4" s="3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
         <v>246.2</v>
       </c>
-      <c r="E4" s="3">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
@@ -1562,12 +1549,11 @@
         <v>194</v>
       </c>
       <c r="D5" s="3">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
         <v>270.2</v>
       </c>
-      <c r="E5" s="3">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
@@ -1580,12 +1566,11 @@
         <v>195</v>
       </c>
       <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
         <v>193.8</v>
       </c>
-      <c r="E6" s="3">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
@@ -1598,12 +1583,11 @@
         <v>195</v>
       </c>
       <c r="D7" s="3">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
         <v>185.4</v>
       </c>
-      <c r="E7" s="3">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11">
@@ -1617,12 +1601,11 @@
         <v>194</v>
       </c>
       <c r="D8" s="3">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
         <v>240.3</v>
       </c>
-      <c r="E8" s="3">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
@@ -1635,12 +1618,11 @@
         <v>194</v>
       </c>
       <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
         <v>218.7</v>
       </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
@@ -1653,12 +1635,11 @@
         <v>195</v>
       </c>
       <c r="D10" s="3">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
         <v>180.2</v>
       </c>
-      <c r="E10" s="3">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
@@ -1671,12 +1652,11 @@
         <v>195</v>
       </c>
       <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
         <v>191.6</v>
       </c>
-      <c r="E11" s="3">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
@@ -1689,12 +1669,11 @@
         <v>195</v>
       </c>
       <c r="D12" s="3">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
         <v>183</v>
       </c>
-      <c r="E12" s="3">
-        <v>7</v>
-      </c>
-      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
@@ -1707,12 +1686,11 @@
         <v>195</v>
       </c>
       <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3">
         <v>203</v>
       </c>
-      <c r="E13" s="3">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
@@ -1724,13 +1702,12 @@
       <c r="C14" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6">
         <v>177.4</v>
       </c>
-      <c r="E14" s="3">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
@@ -1742,13 +1719,12 @@
       <c r="C15" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6">
         <v>242.4</v>
       </c>
-      <c r="E15" s="3">
-        <v>9</v>
-      </c>
-      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
@@ -1760,15 +1736,14 @@
       <c r="C16" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="3">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6">
         <v>183</v>
       </c>
-      <c r="E16" s="3">
-        <v>12</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
@@ -1778,15 +1753,14 @@
       <c r="C17" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="3">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6">
         <v>176.4</v>
       </c>
-      <c r="E17" s="3">
-        <v>7</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
@@ -1797,14 +1771,13 @@
         <v>194</v>
       </c>
       <c r="D18" s="3">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3">
         <v>215.8</v>
       </c>
-      <c r="E18" s="3">
-        <v>9</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>221</v>
       </c>
@@ -1815,14 +1788,13 @@
         <v>194</v>
       </c>
       <c r="D19" s="3">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
         <v>213.6</v>
       </c>
-      <c r="E19" s="3">
-        <v>7</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
@@ -1833,14 +1805,13 @@
         <v>194</v>
       </c>
       <c r="D20" s="3">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3">
         <v>206.1</v>
       </c>
-      <c r="E20" s="3">
-        <v>12</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
@@ -1851,14 +1822,13 @@
         <v>195</v>
       </c>
       <c r="D21" s="3">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3">
         <v>171.6</v>
       </c>
-      <c r="E21" s="3">
-        <v>6</v>
-      </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
@@ -1869,14 +1839,13 @@
         <v>195</v>
       </c>
       <c r="D22" s="3">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3">
         <v>166.1</v>
       </c>
-      <c r="E22" s="3">
-        <v>12</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>134</v>
       </c>
@@ -1887,14 +1856,13 @@
         <v>194</v>
       </c>
       <c r="D23" s="3">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3">
         <v>210.9</v>
       </c>
-      <c r="E23" s="3">
-        <v>7</v>
-      </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>102</v>
       </c>
@@ -1905,14 +1873,13 @@
         <v>194</v>
       </c>
       <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
         <v>182.8</v>
       </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
@@ -1923,14 +1890,13 @@
         <v>194</v>
       </c>
       <c r="D25" s="3">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3">
         <v>188.8</v>
       </c>
-      <c r="E25" s="3">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
@@ -1941,14 +1907,13 @@
         <v>194</v>
       </c>
       <c r="D26" s="3">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3">
         <v>192.9</v>
       </c>
-      <c r="E26" s="3">
-        <v>9</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -1959,14 +1924,13 @@
         <v>194</v>
       </c>
       <c r="D27" s="3">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3">
         <v>168.3</v>
       </c>
-      <c r="E27" s="3">
-        <v>12</v>
-      </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
@@ -1977,14 +1941,13 @@
         <v>195</v>
       </c>
       <c r="D28" s="3">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3">
         <v>159.5</v>
       </c>
-      <c r="E28" s="3">
-        <v>8</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>76</v>
       </c>
@@ -1995,14 +1958,13 @@
         <v>195</v>
       </c>
       <c r="D29" s="3">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3">
         <v>154.9</v>
       </c>
-      <c r="E29" s="3">
-        <v>9</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>154</v>
       </c>
@@ -2013,14 +1975,13 @@
         <v>196</v>
       </c>
       <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3">
         <v>151.80000000000001</v>
       </c>
-      <c r="E30" s="3">
-        <v>4</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>79</v>
       </c>
@@ -2031,14 +1992,13 @@
         <v>196</v>
       </c>
       <c r="D31" s="3">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3">
         <v>133.9</v>
       </c>
-      <c r="E31" s="3">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
         <v>54</v>
       </c>
@@ -2049,14 +2009,13 @@
         <v>194</v>
       </c>
       <c r="D32" s="3">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3">
         <v>217.6</v>
       </c>
-      <c r="E32" s="3">
-        <v>11</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>160</v>
       </c>
@@ -2067,14 +2026,13 @@
         <v>194</v>
       </c>
       <c r="D33" s="3">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3">
         <v>193.1</v>
       </c>
-      <c r="E33" s="3">
-        <v>11</v>
-      </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>222</v>
       </c>
@@ -2085,14 +2043,13 @@
         <v>194</v>
       </c>
       <c r="D34" s="3">
+        <v>6</v>
+      </c>
+      <c r="E34" s="3">
         <v>188.9</v>
       </c>
-      <c r="E34" s="3">
-        <v>6</v>
-      </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>146</v>
       </c>
@@ -2103,14 +2060,13 @@
         <v>194</v>
       </c>
       <c r="D35" s="3">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3">
         <v>180</v>
       </c>
-      <c r="E35" s="3">
-        <v>11</v>
-      </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>67</v>
       </c>
@@ -2121,14 +2077,13 @@
         <v>194</v>
       </c>
       <c r="D36" s="3">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3">
         <v>178.4</v>
       </c>
-      <c r="E36" s="3">
-        <v>8</v>
-      </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>124</v>
       </c>
@@ -2139,14 +2094,13 @@
         <v>195</v>
       </c>
       <c r="D37" s="3">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3">
         <v>163.19999999999999</v>
       </c>
-      <c r="E37" s="3">
-        <v>10</v>
-      </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
         <v>57</v>
       </c>
@@ -2157,14 +2111,13 @@
         <v>195</v>
       </c>
       <c r="D38" s="3">
+        <v>12</v>
+      </c>
+      <c r="E38" s="3">
         <v>151.1</v>
       </c>
-      <c r="E38" s="3">
-        <v>12</v>
-      </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
         <v>64</v>
       </c>
@@ -2175,14 +2128,13 @@
         <v>195</v>
       </c>
       <c r="D39" s="3">
+        <v>12</v>
+      </c>
+      <c r="E39" s="3">
         <v>138.30000000000001</v>
       </c>
-      <c r="E39" s="3">
-        <v>12</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
         <v>95</v>
       </c>
@@ -2193,14 +2145,13 @@
         <v>195</v>
       </c>
       <c r="D40" s="3">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3">
         <v>140</v>
       </c>
-      <c r="E40" s="3">
-        <v>9</v>
-      </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
         <v>119</v>
       </c>
@@ -2211,14 +2162,13 @@
         <v>195</v>
       </c>
       <c r="D41" s="3">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
         <v>139</v>
       </c>
-      <c r="E41" s="3">
-        <v>5</v>
-      </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
         <v>133</v>
       </c>
@@ -2229,14 +2179,13 @@
         <v>195</v>
       </c>
       <c r="D42" s="3">
+        <v>7</v>
+      </c>
+      <c r="E42" s="3">
         <v>134</v>
       </c>
-      <c r="E42" s="3">
-        <v>7</v>
-      </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
         <v>52</v>
       </c>
@@ -2247,14 +2196,13 @@
         <v>195</v>
       </c>
       <c r="D43" s="3">
+        <v>6</v>
+      </c>
+      <c r="E43" s="3">
         <v>141</v>
       </c>
-      <c r="E43" s="3">
-        <v>6</v>
-      </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
         <v>17</v>
       </c>
@@ -2265,14 +2213,13 @@
         <v>190</v>
       </c>
       <c r="D44" s="3">
+        <v>12</v>
+      </c>
+      <c r="E44" s="3">
         <v>339.9</v>
       </c>
-      <c r="E44" s="3">
-        <v>12</v>
-      </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>92</v>
       </c>
@@ -2283,14 +2230,13 @@
         <v>194</v>
       </c>
       <c r="D45" s="3">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3">
         <v>186.1</v>
       </c>
-      <c r="E45" s="3">
-        <v>10</v>
-      </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
         <v>75</v>
       </c>
@@ -2301,14 +2247,13 @@
         <v>194</v>
       </c>
       <c r="D46" s="3">
+        <v>6</v>
+      </c>
+      <c r="E46" s="3">
         <v>166.7</v>
       </c>
-      <c r="E46" s="3">
-        <v>6</v>
-      </c>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
         <v>191</v>
       </c>
@@ -2319,14 +2264,13 @@
         <v>195</v>
       </c>
       <c r="D47" s="3">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3">
         <v>135.69999999999999</v>
       </c>
-      <c r="E47" s="3">
-        <v>10</v>
-      </c>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
@@ -2337,14 +2281,13 @@
         <v>195</v>
       </c>
       <c r="D48" s="3">
+        <v>9</v>
+      </c>
+      <c r="E48" s="3">
         <v>133</v>
       </c>
-      <c r="E48" s="3">
-        <v>9</v>
-      </c>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
         <v>123</v>
       </c>
@@ -2355,14 +2298,13 @@
         <v>195</v>
       </c>
       <c r="D49" s="3">
+        <v>11</v>
+      </c>
+      <c r="E49" s="3">
         <v>140.5</v>
       </c>
-      <c r="E49" s="3">
-        <v>11</v>
-      </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
         <v>148</v>
       </c>
@@ -2373,14 +2315,13 @@
         <v>195</v>
       </c>
       <c r="D50" s="3">
+        <v>12</v>
+      </c>
+      <c r="E50" s="3">
         <v>144.19999999999999</v>
       </c>
-      <c r="E50" s="3">
-        <v>12</v>
-      </c>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>159</v>
       </c>
@@ -2391,14 +2332,13 @@
         <v>195</v>
       </c>
       <c r="D51" s="3">
+        <v>7</v>
+      </c>
+      <c r="E51" s="3">
         <v>135.4</v>
       </c>
-      <c r="E51" s="3">
-        <v>7</v>
-      </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="4" t="s">
         <v>62</v>
       </c>
@@ -2409,14 +2349,13 @@
         <v>195</v>
       </c>
       <c r="D52" s="3">
+        <v>6</v>
+      </c>
+      <c r="E52" s="3">
         <v>129.80000000000001</v>
       </c>
-      <c r="E52" s="3">
-        <v>6</v>
-      </c>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
         <v>140</v>
       </c>
@@ -2427,14 +2366,13 @@
         <v>195</v>
       </c>
       <c r="D53" s="3">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3">
         <v>131.9</v>
       </c>
-      <c r="E53" s="3">
-        <v>9</v>
-      </c>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="4" t="s">
         <v>108</v>
       </c>
@@ -2445,14 +2383,13 @@
         <v>195</v>
       </c>
       <c r="D54" s="3">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3">
         <v>133.30000000000001</v>
       </c>
-      <c r="E54" s="3">
-        <v>4</v>
-      </c>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="4" t="s">
         <v>192</v>
       </c>
@@ -2463,14 +2400,13 @@
         <v>195</v>
       </c>
       <c r="D55" s="3">
+        <v>10</v>
+      </c>
+      <c r="E55" s="3">
         <v>130.6</v>
       </c>
-      <c r="E55" s="3">
-        <v>10</v>
-      </c>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="4" t="s">
         <v>180</v>
       </c>
@@ -2481,14 +2417,13 @@
         <v>195</v>
       </c>
       <c r="D56" s="3">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3">
         <v>126.9</v>
       </c>
-      <c r="E56" s="3">
-        <v>9</v>
-      </c>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>223</v>
       </c>
@@ -2499,14 +2434,13 @@
         <v>194</v>
       </c>
       <c r="D57" s="3">
+        <v>12</v>
+      </c>
+      <c r="E57" s="3">
         <v>172.6</v>
       </c>
-      <c r="E57" s="3">
-        <v>12</v>
-      </c>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="4" t="s">
         <v>137</v>
       </c>
@@ -2517,14 +2451,13 @@
         <v>194</v>
       </c>
       <c r="D58" s="3">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3">
         <v>141.1</v>
       </c>
-      <c r="E58" s="3">
-        <v>10</v>
-      </c>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="4" t="s">
         <v>251</v>
       </c>
@@ -2535,14 +2468,13 @@
         <v>194</v>
       </c>
       <c r="D59" s="3">
+        <v>6</v>
+      </c>
+      <c r="E59" s="3">
         <v>163.5</v>
       </c>
-      <c r="E59" s="3">
-        <v>6</v>
-      </c>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="4" t="s">
         <v>252</v>
       </c>
@@ -2553,14 +2485,13 @@
         <v>194</v>
       </c>
       <c r="D60" s="3">
+        <v>10</v>
+      </c>
+      <c r="E60" s="3">
         <v>139.9</v>
       </c>
-      <c r="E60" s="3">
-        <v>10</v>
-      </c>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="4" t="s">
         <v>55</v>
       </c>
@@ -2571,14 +2502,13 @@
         <v>194</v>
       </c>
       <c r="D61" s="3">
+        <v>5</v>
+      </c>
+      <c r="E61" s="3">
         <v>150.5</v>
       </c>
-      <c r="E61" s="3">
-        <v>5</v>
-      </c>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="4" t="s">
         <v>253</v>
       </c>
@@ -2589,14 +2519,13 @@
         <v>194</v>
       </c>
       <c r="D62" s="3">
+        <v>10</v>
+      </c>
+      <c r="E62" s="3">
         <v>150</v>
       </c>
-      <c r="E62" s="3">
-        <v>10</v>
-      </c>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
         <v>117</v>
       </c>
@@ -2607,14 +2536,13 @@
         <v>194</v>
       </c>
       <c r="D63" s="3">
+        <v>10</v>
+      </c>
+      <c r="E63" s="3">
         <v>140</v>
       </c>
-      <c r="E63" s="3">
-        <v>10</v>
-      </c>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="4" t="s">
         <v>83</v>
       </c>
@@ -2625,14 +2553,13 @@
         <v>194</v>
       </c>
       <c r="D64" s="3">
+        <v>4</v>
+      </c>
+      <c r="E64" s="3">
         <v>134.6</v>
       </c>
-      <c r="E64" s="3">
-        <v>4</v>
-      </c>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="4" t="s">
         <v>110</v>
       </c>
@@ -2643,14 +2570,13 @@
         <v>196</v>
       </c>
       <c r="D65" s="3">
+        <v>11</v>
+      </c>
+      <c r="E65" s="3">
         <v>111.5</v>
       </c>
-      <c r="E65" s="3">
-        <v>11</v>
-      </c>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="4" t="s">
         <v>173</v>
       </c>
@@ -2661,14 +2587,13 @@
         <v>196</v>
       </c>
       <c r="D66" s="3">
+        <v>7</v>
+      </c>
+      <c r="E66" s="3">
         <v>110.2</v>
       </c>
-      <c r="E66" s="3">
-        <v>7</v>
-      </c>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="4" t="s">
         <v>254</v>
       </c>
@@ -2679,14 +2604,13 @@
         <v>196</v>
       </c>
       <c r="D67" s="3">
+        <v>12</v>
+      </c>
+      <c r="E67" s="3">
         <v>109.9</v>
       </c>
-      <c r="E67" s="3">
-        <v>12</v>
-      </c>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="4" t="s">
         <v>151</v>
       </c>
@@ -2697,14 +2621,13 @@
         <v>196</v>
       </c>
       <c r="D68" s="3">
+        <v>9</v>
+      </c>
+      <c r="E68" s="3">
         <v>111.3</v>
       </c>
-      <c r="E68" s="3">
-        <v>9</v>
-      </c>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="4" t="s">
         <v>10</v>
       </c>
@@ -2715,14 +2638,13 @@
         <v>190</v>
       </c>
       <c r="D69" s="3">
+        <v>10</v>
+      </c>
+      <c r="E69" s="3">
         <v>320.7</v>
       </c>
-      <c r="E69" s="3">
-        <v>10</v>
-      </c>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="4" t="s">
         <v>15</v>
       </c>
@@ -2733,14 +2655,13 @@
         <v>190</v>
       </c>
       <c r="D70" s="3">
+        <v>9</v>
+      </c>
+      <c r="E70" s="3">
         <v>306</v>
       </c>
-      <c r="E70" s="3">
-        <v>9</v>
-      </c>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="4" t="s">
         <v>5</v>
       </c>
@@ -2751,14 +2672,13 @@
         <v>190</v>
       </c>
       <c r="D71" s="3">
+        <v>11</v>
+      </c>
+      <c r="E71" s="3">
         <v>299.7</v>
       </c>
-      <c r="E71" s="3">
-        <v>11</v>
-      </c>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="4" t="s">
         <v>81</v>
       </c>
@@ -2769,14 +2689,13 @@
         <v>195</v>
       </c>
       <c r="D72" s="3">
+        <v>12</v>
+      </c>
+      <c r="E72" s="3">
         <v>128.19999999999999</v>
       </c>
-      <c r="E72" s="3">
-        <v>12</v>
-      </c>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="4" t="s">
         <v>46</v>
       </c>
@@ -2787,14 +2706,13 @@
         <v>195</v>
       </c>
       <c r="D73" s="3">
+        <v>9</v>
+      </c>
+      <c r="E73" s="3">
         <v>137.30000000000001</v>
       </c>
-      <c r="E73" s="3">
-        <v>9</v>
-      </c>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="4" t="s">
         <v>103</v>
       </c>
@@ -2805,14 +2723,13 @@
         <v>195</v>
       </c>
       <c r="D74" s="3">
+        <v>11</v>
+      </c>
+      <c r="E74" s="3">
         <v>132</v>
       </c>
-      <c r="E74" s="3">
-        <v>11</v>
-      </c>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6">
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="4" t="s">
         <v>94</v>
       </c>
@@ -2823,14 +2740,13 @@
         <v>195</v>
       </c>
       <c r="D75" s="3">
+        <v>7</v>
+      </c>
+      <c r="E75" s="3">
         <v>120.5</v>
       </c>
-      <c r="E75" s="3">
-        <v>7</v>
-      </c>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="4" t="s">
         <v>65</v>
       </c>
@@ -2841,14 +2757,13 @@
         <v>195</v>
       </c>
       <c r="D76" s="3">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
         <v>124.2</v>
       </c>
-      <c r="E76" s="3">
-        <v>5</v>
-      </c>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="4" t="s">
         <v>255</v>
       </c>
@@ -2859,14 +2774,13 @@
         <v>195</v>
       </c>
       <c r="D77" s="3">
+        <v>10</v>
+      </c>
+      <c r="E77" s="3">
         <v>117.3</v>
       </c>
-      <c r="E77" s="3">
-        <v>10</v>
-      </c>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="4" t="s">
         <v>98</v>
       </c>
@@ -2877,14 +2791,13 @@
         <v>195</v>
       </c>
       <c r="D78" s="3">
+        <v>10</v>
+      </c>
+      <c r="E78" s="3">
         <v>102.9</v>
       </c>
-      <c r="E78" s="3">
-        <v>10</v>
-      </c>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="4" t="s">
         <v>256</v>
       </c>
@@ -2895,14 +2808,13 @@
         <v>195</v>
       </c>
       <c r="D79" s="3">
+        <v>7</v>
+      </c>
+      <c r="E79" s="3">
         <v>112</v>
       </c>
-      <c r="E79" s="3">
-        <v>7</v>
-      </c>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="4" t="s">
         <v>257</v>
       </c>
@@ -2913,14 +2825,13 @@
         <v>194</v>
       </c>
       <c r="D80" s="3">
+        <v>10</v>
+      </c>
+      <c r="E80" s="3">
         <v>138.69999999999999</v>
       </c>
-      <c r="E80" s="3">
-        <v>10</v>
-      </c>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="4" t="s">
         <v>121</v>
       </c>
@@ -2931,14 +2842,13 @@
         <v>194</v>
       </c>
       <c r="D81" s="3">
+        <v>6</v>
+      </c>
+      <c r="E81" s="3">
         <v>122.2</v>
       </c>
-      <c r="E81" s="3">
-        <v>6</v>
-      </c>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6">
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="4" t="s">
         <v>49</v>
       </c>
@@ -2949,14 +2859,13 @@
         <v>194</v>
       </c>
       <c r="D82" s="3">
+        <v>10</v>
+      </c>
+      <c r="E82" s="3">
         <v>102.8</v>
       </c>
-      <c r="E82" s="3">
-        <v>10</v>
-      </c>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="1:6">
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="4" t="s">
         <v>163</v>
       </c>
@@ -2967,14 +2876,13 @@
         <v>194</v>
       </c>
       <c r="D83" s="3">
+        <v>12</v>
+      </c>
+      <c r="E83" s="3">
         <v>125.5</v>
       </c>
-      <c r="E83" s="3">
-        <v>12</v>
-      </c>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6">
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="4" t="s">
         <v>50</v>
       </c>
@@ -2985,14 +2893,13 @@
         <v>194</v>
       </c>
       <c r="D84" s="3">
+        <v>10</v>
+      </c>
+      <c r="E84" s="3">
         <v>116.1</v>
       </c>
-      <c r="E84" s="3">
-        <v>10</v>
-      </c>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6">
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="4" t="s">
         <v>60</v>
       </c>
@@ -3003,14 +2910,13 @@
         <v>194</v>
       </c>
       <c r="D85" s="3">
+        <v>11</v>
+      </c>
+      <c r="E85" s="3">
         <v>110</v>
       </c>
-      <c r="E85" s="3">
-        <v>11</v>
-      </c>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6">
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="4" t="s">
         <v>142</v>
       </c>
@@ -3021,14 +2927,13 @@
         <v>194</v>
       </c>
       <c r="D86" s="3">
+        <v>9</v>
+      </c>
+      <c r="E86" s="3">
         <v>107.7</v>
       </c>
-      <c r="E86" s="3">
-        <v>9</v>
-      </c>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="4" t="s">
         <v>258</v>
       </c>
@@ -3039,14 +2944,13 @@
         <v>190</v>
       </c>
       <c r="D87" s="3">
+        <v>7</v>
+      </c>
+      <c r="E87" s="3">
         <v>282.2</v>
       </c>
-      <c r="E87" s="3">
-        <v>7</v>
-      </c>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
@@ -3057,14 +2961,13 @@
         <v>190</v>
       </c>
       <c r="D88" s="3">
+        <v>10</v>
+      </c>
+      <c r="E88" s="3">
         <v>295.39999999999998</v>
       </c>
-      <c r="E88" s="3">
-        <v>10</v>
-      </c>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6">
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="4" t="s">
         <v>6</v>
       </c>
@@ -3075,14 +2978,13 @@
         <v>190</v>
       </c>
       <c r="D89" s="3">
+        <v>7</v>
+      </c>
+      <c r="E89" s="3">
         <v>302.10000000000002</v>
       </c>
-      <c r="E89" s="3">
-        <v>7</v>
-      </c>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="4" t="s">
         <v>24</v>
       </c>
@@ -3093,14 +2995,13 @@
         <v>190</v>
       </c>
       <c r="D90" s="3">
+        <v>8</v>
+      </c>
+      <c r="E90" s="3">
         <v>298</v>
       </c>
-      <c r="E90" s="3">
-        <v>8</v>
-      </c>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6">
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="4" t="s">
         <v>174</v>
       </c>
@@ -3111,14 +3012,13 @@
         <v>195</v>
       </c>
       <c r="D91" s="3">
+        <v>12</v>
+      </c>
+      <c r="E91" s="3">
         <v>109.2</v>
       </c>
-      <c r="E91" s="3">
-        <v>12</v>
-      </c>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6">
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="4" t="s">
         <v>153</v>
       </c>
@@ -3129,14 +3029,13 @@
         <v>195</v>
       </c>
       <c r="D92" s="3">
+        <v>10</v>
+      </c>
+      <c r="E92" s="3">
         <v>102.4</v>
       </c>
-      <c r="E92" s="3">
-        <v>10</v>
-      </c>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6">
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="4" t="s">
         <v>168</v>
       </c>
@@ -3147,14 +3046,13 @@
         <v>195</v>
       </c>
       <c r="D93" s="3">
+        <v>8</v>
+      </c>
+      <c r="E93" s="3">
         <v>105.5</v>
       </c>
-      <c r="E93" s="3">
-        <v>8</v>
-      </c>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6">
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="4" t="s">
         <v>90</v>
       </c>
@@ -3165,14 +3063,13 @@
         <v>195</v>
       </c>
       <c r="D94" s="3">
+        <v>11</v>
+      </c>
+      <c r="E94" s="3">
         <v>102.1</v>
       </c>
-      <c r="E94" s="3">
-        <v>11</v>
-      </c>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="4" t="s">
         <v>70</v>
       </c>
@@ -3183,14 +3080,13 @@
         <v>195</v>
       </c>
       <c r="D95" s="3">
+        <v>12</v>
+      </c>
+      <c r="E95" s="3">
         <v>110.6</v>
       </c>
-      <c r="E95" s="3">
-        <v>12</v>
-      </c>
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="4" t="s">
         <v>259</v>
       </c>
@@ -3201,14 +3097,13 @@
         <v>195</v>
       </c>
       <c r="D96" s="3">
+        <v>4</v>
+      </c>
+      <c r="E96" s="3">
         <v>98.2</v>
       </c>
-      <c r="E96" s="3">
-        <v>4</v>
-      </c>
-      <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="1:6">
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="4" t="s">
         <v>107</v>
       </c>
@@ -3219,14 +3114,13 @@
         <v>195</v>
       </c>
       <c r="D97" s="3">
+        <v>4</v>
+      </c>
+      <c r="E97" s="3">
         <v>104.1</v>
       </c>
-      <c r="E97" s="3">
-        <v>4</v>
-      </c>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6">
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="4" t="s">
         <v>155</v>
       </c>
@@ -3237,14 +3131,13 @@
         <v>195</v>
       </c>
       <c r="D98" s="3">
+        <v>7</v>
+      </c>
+      <c r="E98" s="3">
         <v>85</v>
       </c>
-      <c r="E98" s="3">
-        <v>7</v>
-      </c>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="1:6">
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="4" t="s">
         <v>179</v>
       </c>
@@ -3255,14 +3148,13 @@
         <v>194</v>
       </c>
       <c r="D99" s="3">
+        <v>7</v>
+      </c>
+      <c r="E99" s="3">
         <v>117.8</v>
       </c>
-      <c r="E99" s="3">
-        <v>7</v>
-      </c>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="1:6">
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="4" t="s">
         <v>59</v>
       </c>
@@ -3273,14 +3165,13 @@
         <v>194</v>
       </c>
       <c r="D100" s="3">
+        <v>7</v>
+      </c>
+      <c r="E100" s="3">
         <v>88.4</v>
       </c>
-      <c r="E100" s="3">
-        <v>7</v>
-      </c>
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="1:6">
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="4" t="s">
         <v>175</v>
       </c>
@@ -3291,14 +3182,13 @@
         <v>194</v>
       </c>
       <c r="D101" s="3">
+        <v>6</v>
+      </c>
+      <c r="E101" s="3">
         <v>83.1</v>
       </c>
-      <c r="E101" s="3">
-        <v>6</v>
-      </c>
-      <c r="F101" s="5"/>
-    </row>
-    <row r="102" spans="1:6">
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="4" t="s">
         <v>260</v>
       </c>
@@ -3309,14 +3199,13 @@
         <v>194</v>
       </c>
       <c r="D102" s="3">
+        <v>9</v>
+      </c>
+      <c r="E102" s="3">
         <v>82</v>
       </c>
-      <c r="E102" s="3">
-        <v>9</v>
-      </c>
-      <c r="F102" s="5"/>
-    </row>
-    <row r="103" spans="1:6">
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="4" t="s">
         <v>144</v>
       </c>
@@ -3327,14 +3216,13 @@
         <v>194</v>
       </c>
       <c r="D103" s="3">
+        <v>4</v>
+      </c>
+      <c r="E103" s="3">
         <v>115.1</v>
       </c>
-      <c r="E103" s="3">
-        <v>4</v>
-      </c>
-      <c r="F103" s="5"/>
-    </row>
-    <row r="104" spans="1:6">
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="4" t="s">
         <v>38</v>
       </c>
@@ -3345,14 +3233,13 @@
         <v>194</v>
       </c>
       <c r="D104" s="3">
+        <v>6</v>
+      </c>
+      <c r="E104" s="3">
         <v>98.2</v>
       </c>
-      <c r="E104" s="3">
-        <v>6</v>
-      </c>
-      <c r="F104" s="5"/>
-    </row>
-    <row r="105" spans="1:6">
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="4" t="s">
         <v>261</v>
       </c>
@@ -3363,14 +3250,13 @@
         <v>194</v>
       </c>
       <c r="D105" s="3">
+        <v>12</v>
+      </c>
+      <c r="E105" s="3">
         <v>56</v>
       </c>
-      <c r="E105" s="3">
-        <v>12</v>
-      </c>
-      <c r="F105" s="5"/>
-    </row>
-    <row r="106" spans="1:6">
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="4" t="s">
         <v>93</v>
       </c>
@@ -3381,14 +3267,13 @@
         <v>195</v>
       </c>
       <c r="D106" s="3">
+        <v>10</v>
+      </c>
+      <c r="E106" s="3">
         <v>109.6</v>
       </c>
-      <c r="E106" s="3">
-        <v>10</v>
-      </c>
-      <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="1:6">
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="4" t="s">
         <v>262</v>
       </c>
@@ -3399,14 +3284,13 @@
         <v>195</v>
       </c>
       <c r="D107" s="3">
+        <v>11</v>
+      </c>
+      <c r="E107" s="3">
         <v>84.4</v>
       </c>
-      <c r="E107" s="3">
-        <v>11</v>
-      </c>
-      <c r="F107" s="5"/>
-    </row>
-    <row r="108" spans="1:6">
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="4" t="s">
         <v>263</v>
       </c>
@@ -3417,14 +3301,13 @@
         <v>195</v>
       </c>
       <c r="D108" s="3">
+        <v>11</v>
+      </c>
+      <c r="E108" s="3">
         <v>92.1</v>
       </c>
-      <c r="E108" s="3">
-        <v>11</v>
-      </c>
-      <c r="F108" s="5"/>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="4" t="s">
         <v>264</v>
       </c>
@@ -3435,14 +3318,13 @@
         <v>195</v>
       </c>
       <c r="D109" s="3">
+        <v>10</v>
+      </c>
+      <c r="E109" s="3">
         <v>93.1</v>
       </c>
-      <c r="E109" s="3">
-        <v>10</v>
-      </c>
-      <c r="F109" s="5"/>
-    </row>
-    <row r="110" spans="1:6">
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="4" t="s">
         <v>141</v>
       </c>
@@ -3453,14 +3335,13 @@
         <v>196</v>
       </c>
       <c r="D110" s="3">
+        <v>7</v>
+      </c>
+      <c r="E110" s="3">
         <v>94.7</v>
       </c>
-      <c r="E110" s="3">
-        <v>7</v>
-      </c>
-      <c r="F110" s="5"/>
-    </row>
-    <row r="111" spans="1:6">
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="4" t="s">
         <v>149</v>
       </c>
@@ -3471,14 +3352,13 @@
         <v>196</v>
       </c>
       <c r="D111" s="3">
+        <v>7</v>
+      </c>
+      <c r="E111" s="3">
         <v>94.6</v>
       </c>
-      <c r="E111" s="3">
-        <v>7</v>
-      </c>
-      <c r="F111" s="5"/>
-    </row>
-    <row r="112" spans="1:6">
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="4" t="s">
         <v>104</v>
       </c>
@@ -3489,14 +3369,13 @@
         <v>196</v>
       </c>
       <c r="D112" s="3">
+        <v>11</v>
+      </c>
+      <c r="E112" s="3">
         <v>90.1</v>
       </c>
-      <c r="E112" s="3">
-        <v>11</v>
-      </c>
-      <c r="F112" s="5"/>
-    </row>
-    <row r="113" spans="1:6">
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="4" t="s">
         <v>161</v>
       </c>
@@ -3507,14 +3386,13 @@
         <v>196</v>
       </c>
       <c r="D113" s="3">
+        <v>9</v>
+      </c>
+      <c r="E113" s="3">
         <v>92.7</v>
       </c>
-      <c r="E113" s="3">
-        <v>9</v>
-      </c>
-      <c r="F113" s="5"/>
-    </row>
-    <row r="114" spans="1:6">
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="4" t="s">
         <v>16</v>
       </c>
@@ -3525,14 +3403,13 @@
         <v>190</v>
       </c>
       <c r="D114" s="3">
+        <v>9</v>
+      </c>
+      <c r="E114" s="3">
         <v>281</v>
       </c>
-      <c r="E114" s="3">
-        <v>9</v>
-      </c>
-      <c r="F114" s="5"/>
-    </row>
-    <row r="115" spans="1:6">
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="4" t="s">
         <v>12</v>
       </c>
@@ -3543,14 +3420,13 @@
         <v>190</v>
       </c>
       <c r="D115" s="3">
+        <v>7</v>
+      </c>
+      <c r="E115" s="3">
         <v>285.5</v>
       </c>
-      <c r="E115" s="3">
-        <v>7</v>
-      </c>
-      <c r="F115" s="5"/>
-    </row>
-    <row r="116" spans="1:6">
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="4" t="s">
         <v>8</v>
       </c>
@@ -3561,14 +3437,13 @@
         <v>190</v>
       </c>
       <c r="D116" s="3">
+        <v>11</v>
+      </c>
+      <c r="E116" s="3">
         <v>280</v>
       </c>
-      <c r="E116" s="3">
-        <v>11</v>
-      </c>
-      <c r="F116" s="5"/>
-    </row>
-    <row r="117" spans="1:6">
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="4" t="s">
         <v>265</v>
       </c>
@@ -3579,14 +3454,13 @@
         <v>190</v>
       </c>
       <c r="D117" s="3">
+        <v>12</v>
+      </c>
+      <c r="E117" s="3">
         <v>284.10000000000002</v>
       </c>
-      <c r="E117" s="3">
-        <v>12</v>
-      </c>
-      <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="1:6">
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="4" t="s">
         <v>22</v>
       </c>
@@ -3597,14 +3471,13 @@
         <v>190</v>
       </c>
       <c r="D118" s="3">
+        <v>9</v>
+      </c>
+      <c r="E118" s="3">
         <v>278.10000000000002</v>
       </c>
-      <c r="E118" s="3">
-        <v>9</v>
-      </c>
-      <c r="F118" s="5"/>
-    </row>
-    <row r="119" spans="1:6">
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="4" t="s">
         <v>4</v>
       </c>
@@ -3615,14 +3488,13 @@
         <v>190</v>
       </c>
       <c r="D119" s="3">
+        <v>10</v>
+      </c>
+      <c r="E119" s="3">
         <v>275.89999999999998</v>
       </c>
-      <c r="E119" s="3">
-        <v>10</v>
-      </c>
-      <c r="F119" s="5"/>
-    </row>
-    <row r="120" spans="1:6">
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="4" t="s">
         <v>156</v>
       </c>
@@ -3633,14 +3505,13 @@
         <v>195</v>
       </c>
       <c r="D120" s="3">
+        <v>7</v>
+      </c>
+      <c r="E120" s="3">
         <v>100.4</v>
       </c>
-      <c r="E120" s="3">
-        <v>7</v>
-      </c>
-      <c r="F120" s="5"/>
-    </row>
-    <row r="121" spans="1:6">
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="4" t="s">
         <v>130</v>
       </c>
@@ -3651,14 +3522,13 @@
         <v>195</v>
       </c>
       <c r="D121" s="3">
+        <v>10</v>
+      </c>
+      <c r="E121" s="3">
         <v>104.7</v>
       </c>
-      <c r="E121" s="3">
-        <v>10</v>
-      </c>
-      <c r="F121" s="5"/>
-    </row>
-    <row r="122" spans="1:6">
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="4" t="s">
         <v>88</v>
       </c>
@@ -3669,14 +3539,13 @@
         <v>195</v>
       </c>
       <c r="D122" s="3">
+        <v>6</v>
+      </c>
+      <c r="E122" s="3">
         <v>85.2</v>
       </c>
-      <c r="E122" s="3">
-        <v>6</v>
-      </c>
-      <c r="F122" s="5"/>
-    </row>
-    <row r="123" spans="1:6">
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="4" t="s">
         <v>136</v>
       </c>
@@ -3687,14 +3556,13 @@
         <v>195</v>
       </c>
       <c r="D123" s="3">
+        <v>6</v>
+      </c>
+      <c r="E123" s="3">
         <v>90.1</v>
       </c>
-      <c r="E123" s="3">
-        <v>6</v>
-      </c>
-      <c r="F123" s="5"/>
-    </row>
-    <row r="124" spans="1:6">
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="4" t="s">
         <v>143</v>
       </c>
@@ -3705,14 +3573,13 @@
         <v>195</v>
       </c>
       <c r="D124" s="3">
+        <v>6</v>
+      </c>
+      <c r="E124" s="3">
         <v>100.1</v>
       </c>
-      <c r="E124" s="3">
-        <v>6</v>
-      </c>
-      <c r="F124" s="5"/>
-    </row>
-    <row r="125" spans="1:6">
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="4" t="s">
         <v>266</v>
       </c>
@@ -3723,14 +3590,13 @@
         <v>190</v>
       </c>
       <c r="D125" s="3">
+        <v>8</v>
+      </c>
+      <c r="E125" s="3">
         <v>270.60000000000002</v>
       </c>
-      <c r="E125" s="3">
-        <v>8</v>
-      </c>
-      <c r="F125" s="5"/>
-    </row>
-    <row r="126" spans="1:6">
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="4" t="s">
         <v>19</v>
       </c>
@@ -3741,14 +3607,13 @@
         <v>190</v>
       </c>
       <c r="D126" s="3">
+        <v>6</v>
+      </c>
+      <c r="E126" s="3">
         <v>279.5</v>
       </c>
-      <c r="E126" s="3">
-        <v>6</v>
-      </c>
-      <c r="F126" s="5"/>
-    </row>
-    <row r="127" spans="1:6">
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="4" t="s">
         <v>96</v>
       </c>
@@ -3759,14 +3624,13 @@
         <v>195</v>
       </c>
       <c r="D127" s="3">
+        <v>5</v>
+      </c>
+      <c r="E127" s="3">
         <v>103.8</v>
       </c>
-      <c r="E127" s="3">
-        <v>5</v>
-      </c>
-      <c r="F127" s="5"/>
-    </row>
-    <row r="128" spans="1:6">
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="4" t="s">
         <v>267</v>
       </c>
@@ -3777,14 +3641,13 @@
         <v>195</v>
       </c>
       <c r="D128" s="3">
+        <v>11</v>
+      </c>
+      <c r="E128" s="3">
         <v>94.2</v>
       </c>
-      <c r="E128" s="3">
-        <v>11</v>
-      </c>
-      <c r="F128" s="5"/>
-    </row>
-    <row r="129" spans="1:6">
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="4" t="s">
         <v>167</v>
       </c>
@@ -3795,14 +3658,13 @@
         <v>195</v>
       </c>
       <c r="D129" s="3">
+        <v>6</v>
+      </c>
+      <c r="E129" s="3">
         <v>94.2</v>
       </c>
-      <c r="E129" s="3">
-        <v>6</v>
-      </c>
-      <c r="F129" s="5"/>
-    </row>
-    <row r="130" spans="1:6">
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="4" t="s">
         <v>268</v>
       </c>
@@ -3813,14 +3675,13 @@
         <v>195</v>
       </c>
       <c r="D130" s="3">
+        <v>10</v>
+      </c>
+      <c r="E130" s="3">
         <v>80.900000000000006</v>
       </c>
-      <c r="E130" s="3">
-        <v>10</v>
-      </c>
-      <c r="F130" s="5"/>
-    </row>
-    <row r="131" spans="1:6">
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="4" t="s">
         <v>182</v>
       </c>
@@ -3831,14 +3692,13 @@
         <v>195</v>
       </c>
       <c r="D131" s="3">
+        <v>11</v>
+      </c>
+      <c r="E131" s="3">
         <v>81.599999999999994</v>
       </c>
-      <c r="E131" s="3">
-        <v>11</v>
-      </c>
-      <c r="F131" s="5"/>
-    </row>
-    <row r="132" spans="1:6">
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="4" t="s">
         <v>147</v>
       </c>
@@ -3849,14 +3709,13 @@
         <v>196</v>
       </c>
       <c r="D132" s="3">
+        <v>6</v>
+      </c>
+      <c r="E132" s="3">
         <v>85.4</v>
       </c>
-      <c r="E132" s="3">
-        <v>6</v>
-      </c>
-      <c r="F132" s="5"/>
-    </row>
-    <row r="133" spans="1:6">
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="4" t="s">
         <v>269</v>
       </c>
@@ -3867,14 +3726,13 @@
         <v>196</v>
       </c>
       <c r="D133" s="3">
+        <v>8</v>
+      </c>
+      <c r="E133" s="3">
         <v>86.5</v>
       </c>
-      <c r="E133" s="3">
-        <v>8</v>
-      </c>
-      <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="1:6">
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="4" t="s">
         <v>114</v>
       </c>
@@ -3885,14 +3743,13 @@
         <v>196</v>
       </c>
       <c r="D134" s="3">
+        <v>10</v>
+      </c>
+      <c r="E134" s="3">
         <v>80.099999999999994</v>
       </c>
-      <c r="E134" s="3">
-        <v>10</v>
-      </c>
-      <c r="F134" s="5"/>
-    </row>
-    <row r="135" spans="1:6">
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="4" t="s">
         <v>89</v>
       </c>
@@ -3903,14 +3760,13 @@
         <v>196</v>
       </c>
       <c r="D135" s="3">
+        <v>7</v>
+      </c>
+      <c r="E135" s="3">
         <v>88.4</v>
       </c>
-      <c r="E135" s="3">
-        <v>7</v>
-      </c>
-      <c r="F135" s="5"/>
-    </row>
-    <row r="136" spans="1:6">
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="4" t="s">
         <v>270</v>
       </c>
@@ -3921,14 +3777,13 @@
         <v>194</v>
       </c>
       <c r="D136" s="3">
+        <v>6</v>
+      </c>
+      <c r="E136" s="3">
         <v>65.900000000000006</v>
       </c>
-      <c r="E136" s="3">
-        <v>6</v>
-      </c>
-      <c r="F136" s="5"/>
-    </row>
-    <row r="137" spans="1:6">
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="4" t="s">
         <v>271</v>
       </c>
@@ -3939,14 +3794,13 @@
         <v>194</v>
       </c>
       <c r="D137" s="3">
+        <v>5</v>
+      </c>
+      <c r="E137" s="3">
         <v>93.5</v>
       </c>
-      <c r="E137" s="3">
-        <v>5</v>
-      </c>
-      <c r="F137" s="5"/>
-    </row>
-    <row r="138" spans="1:6">
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="4" t="s">
         <v>272</v>
       </c>
@@ -3957,14 +3811,13 @@
         <v>194</v>
       </c>
       <c r="D138" s="3">
+        <v>7</v>
+      </c>
+      <c r="E138" s="3">
         <v>74.3</v>
       </c>
-      <c r="E138" s="3">
-        <v>7</v>
-      </c>
-      <c r="F138" s="5"/>
-    </row>
-    <row r="139" spans="1:6">
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="4" t="s">
         <v>273</v>
       </c>
@@ -3975,14 +3828,13 @@
         <v>194</v>
       </c>
       <c r="D139" s="3">
+        <v>8</v>
+      </c>
+      <c r="E139" s="3">
         <v>39.4</v>
       </c>
-      <c r="E139" s="3">
-        <v>8</v>
-      </c>
-      <c r="F139" s="5"/>
-    </row>
-    <row r="140" spans="1:6">
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="4" t="s">
         <v>116</v>
       </c>
@@ -3993,14 +3845,13 @@
         <v>195</v>
       </c>
       <c r="D140" s="3">
+        <v>9</v>
+      </c>
+      <c r="E140" s="3">
         <v>94.1</v>
       </c>
-      <c r="E140" s="3">
-        <v>9</v>
-      </c>
-      <c r="F140" s="5"/>
-    </row>
-    <row r="141" spans="1:6">
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="4" t="s">
         <v>171</v>
       </c>
@@ -4011,14 +3862,13 @@
         <v>195</v>
       </c>
       <c r="D141" s="3">
+        <v>5</v>
+      </c>
+      <c r="E141" s="3">
         <v>79</v>
       </c>
-      <c r="E141" s="3">
-        <v>5</v>
-      </c>
-      <c r="F141" s="5"/>
-    </row>
-    <row r="142" spans="1:6">
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="3" t="s">
         <v>215</v>
       </c>
@@ -4029,14 +3879,13 @@
         <v>249</v>
       </c>
       <c r="D142" s="3">
+        <v>6</v>
+      </c>
+      <c r="E142" s="3">
         <v>117.4</v>
       </c>
-      <c r="E142" s="3">
-        <v>6</v>
-      </c>
-      <c r="F142" s="5"/>
-    </row>
-    <row r="143" spans="1:6">
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="3" t="s">
         <v>200</v>
       </c>
@@ -4047,14 +3896,13 @@
         <v>249</v>
       </c>
       <c r="D143" s="3">
+        <v>10</v>
+      </c>
+      <c r="E143" s="3">
         <v>99.4</v>
       </c>
-      <c r="E143" s="3">
-        <v>10</v>
-      </c>
-      <c r="F143" s="5"/>
-    </row>
-    <row r="144" spans="1:6">
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="3" t="s">
         <v>216</v>
       </c>
@@ -4065,12 +3913,11 @@
         <v>249</v>
       </c>
       <c r="D144" s="3">
+        <v>6</v>
+      </c>
+      <c r="E144" s="3">
         <v>100.5</v>
       </c>
-      <c r="E144" s="3">
-        <v>6</v>
-      </c>
-      <c r="F144" s="5"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="3" t="s">
@@ -4083,12 +3930,11 @@
         <v>249</v>
       </c>
       <c r="D145" s="3">
+        <v>9</v>
+      </c>
+      <c r="E145" s="3">
         <v>95</v>
       </c>
-      <c r="E145" s="3">
-        <v>9</v>
-      </c>
-      <c r="F145" s="5"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="3" t="s">
@@ -4101,12 +3947,11 @@
         <v>249</v>
       </c>
       <c r="D146" s="3">
+        <v>12</v>
+      </c>
+      <c r="E146" s="3">
         <v>97</v>
       </c>
-      <c r="E146" s="3">
-        <v>12</v>
-      </c>
-      <c r="F146" s="5"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="3" t="s">
@@ -4119,12 +3964,11 @@
         <v>249</v>
       </c>
       <c r="D147" s="3">
+        <v>9</v>
+      </c>
+      <c r="E147" s="3">
         <v>101.3</v>
       </c>
-      <c r="E147" s="3">
-        <v>9</v>
-      </c>
-      <c r="F147" s="5"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="3" t="s">
@@ -4137,12 +3981,11 @@
         <v>249</v>
       </c>
       <c r="D148" s="3">
+        <v>12</v>
+      </c>
+      <c r="E148" s="3">
         <v>93.9</v>
       </c>
-      <c r="E148" s="3">
-        <v>12</v>
-      </c>
-      <c r="F148" s="5"/>
       <c r="G148" s="2"/>
     </row>
     <row r="149" spans="1:7">
@@ -4156,12 +3999,11 @@
         <v>249</v>
       </c>
       <c r="D149" s="3">
+        <v>10</v>
+      </c>
+      <c r="E149" s="3">
         <v>94.1</v>
       </c>
-      <c r="E149" s="3">
-        <v>10</v>
-      </c>
-      <c r="F149" s="5"/>
       <c r="G149" s="2"/>
     </row>
     <row r="150" spans="1:7" ht="20">
@@ -4175,13 +4017,12 @@
         <v>249</v>
       </c>
       <c r="D150" s="3">
+        <v>11</v>
+      </c>
+      <c r="E150" s="3">
         <v>95.7</v>
       </c>
-      <c r="E150" s="3">
-        <v>11</v>
-      </c>
-      <c r="F150" s="5"/>
-      <c r="G150" s="8"/>
+      <c r="G150" s="7"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="3" t="s">
@@ -4194,12 +4035,11 @@
         <v>249</v>
       </c>
       <c r="D151" s="3">
+        <v>10</v>
+      </c>
+      <c r="E151" s="3">
         <v>89.6</v>
       </c>
-      <c r="E151" s="3">
-        <v>10</v>
-      </c>
-      <c r="F151" s="5"/>
       <c r="G151" s="2"/>
     </row>
     <row r="152" spans="1:7">
@@ -4213,12 +4053,11 @@
         <v>197</v>
       </c>
       <c r="D152" s="3">
+        <v>9</v>
+      </c>
+      <c r="E152" s="3">
         <v>161.6</v>
       </c>
-      <c r="E152" s="3">
-        <v>9</v>
-      </c>
-      <c r="F152" s="5"/>
       <c r="G152" s="2"/>
     </row>
     <row r="153" spans="1:7" ht="20">
@@ -4232,13 +4071,12 @@
         <v>197</v>
       </c>
       <c r="D153" s="3">
+        <v>8</v>
+      </c>
+      <c r="E153" s="3">
         <v>148.5</v>
       </c>
-      <c r="E153" s="3">
-        <v>8</v>
-      </c>
-      <c r="F153" s="5"/>
-      <c r="G153" s="9"/>
+      <c r="G153" s="8"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
@@ -4251,12 +4089,11 @@
         <v>197</v>
       </c>
       <c r="D154" s="3">
+        <v>9</v>
+      </c>
+      <c r="E154" s="3">
         <v>137.4</v>
       </c>
-      <c r="E154" s="3">
-        <v>9</v>
-      </c>
-      <c r="F154" s="5"/>
       <c r="G154" s="2"/>
     </row>
     <row r="155" spans="1:7">
@@ -4270,12 +4107,11 @@
         <v>197</v>
       </c>
       <c r="D155" s="3">
+        <v>12</v>
+      </c>
+      <c r="E155" s="3">
         <v>137.69999999999999</v>
       </c>
-      <c r="E155" s="3">
-        <v>12</v>
-      </c>
-      <c r="F155" s="5"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
@@ -4288,12 +4124,11 @@
         <v>197</v>
       </c>
       <c r="D156" s="3">
+        <v>10</v>
+      </c>
+      <c r="E156" s="3">
         <v>133.5</v>
       </c>
-      <c r="E156" s="3">
-        <v>10</v>
-      </c>
-      <c r="F156" s="5"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
@@ -4306,12 +4141,11 @@
         <v>197</v>
       </c>
       <c r="D157" s="3">
+        <v>10</v>
+      </c>
+      <c r="E157" s="3">
         <v>134.9</v>
       </c>
-      <c r="E157" s="3">
-        <v>10</v>
-      </c>
-      <c r="F157" s="5"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
@@ -4324,12 +4158,11 @@
         <v>197</v>
       </c>
       <c r="D158" s="3">
+        <v>4</v>
+      </c>
+      <c r="E158" s="3">
         <v>134</v>
       </c>
-      <c r="E158" s="3">
-        <v>4</v>
-      </c>
-      <c r="F158" s="5"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="4" t="s">
@@ -4342,12 +4175,11 @@
         <v>197</v>
       </c>
       <c r="D159" s="3">
+        <v>12</v>
+      </c>
+      <c r="E159" s="3">
         <v>133</v>
       </c>
-      <c r="E159" s="3">
-        <v>12</v>
-      </c>
-      <c r="F159" s="5"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="4" t="s">
@@ -4360,14 +4192,13 @@
         <v>197</v>
       </c>
       <c r="D160" s="3">
+        <v>8</v>
+      </c>
+      <c r="E160" s="3">
         <v>128.9</v>
       </c>
-      <c r="E160" s="3">
-        <v>8</v>
-      </c>
-      <c r="F160" s="5"/>
-    </row>
-    <row r="161" spans="1:6">
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="4" t="s">
         <v>68</v>
       </c>
@@ -4378,14 +4209,13 @@
         <v>197</v>
       </c>
       <c r="D161" s="3">
+        <v>5</v>
+      </c>
+      <c r="E161" s="3">
         <v>127.6</v>
       </c>
-      <c r="E161" s="3">
-        <v>5</v>
-      </c>
-      <c r="F161" s="5"/>
-    </row>
-    <row r="162" spans="1:6">
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="4" t="s">
         <v>276</v>
       </c>
@@ -4396,14 +4226,13 @@
         <v>195</v>
       </c>
       <c r="D162" s="3">
+        <v>4</v>
+      </c>
+      <c r="E162" s="3">
         <v>67.3</v>
       </c>
-      <c r="E162" s="3">
-        <v>4</v>
-      </c>
-      <c r="F162" s="5"/>
-    </row>
-    <row r="163" spans="1:6">
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="4" t="s">
         <v>277</v>
       </c>
@@ -4414,14 +4243,13 @@
         <v>195</v>
       </c>
       <c r="D163" s="3">
+        <v>10</v>
+      </c>
+      <c r="E163" s="3">
         <v>78.2</v>
       </c>
-      <c r="E163" s="3">
-        <v>10</v>
-      </c>
-      <c r="F163" s="5"/>
-    </row>
-    <row r="164" spans="1:6">
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="3" t="s">
         <v>82</v>
       </c>
@@ -4432,14 +4260,13 @@
         <v>195</v>
       </c>
       <c r="D164" s="3">
+        <v>11</v>
+      </c>
+      <c r="E164" s="3">
         <v>76.599999999999994</v>
       </c>
-      <c r="E164" s="3">
-        <v>11</v>
-      </c>
-      <c r="F164" s="5"/>
-    </row>
-    <row r="165" spans="1:6">
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="4" t="s">
         <v>158</v>
       </c>
@@ -4450,14 +4277,13 @@
         <v>196</v>
       </c>
       <c r="D165" s="3">
+        <v>6</v>
+      </c>
+      <c r="E165" s="3">
         <v>76.599999999999994</v>
       </c>
-      <c r="E165" s="3">
-        <v>6</v>
-      </c>
-      <c r="F165" s="5"/>
-    </row>
-    <row r="166" spans="1:6">
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="4" t="s">
         <v>112</v>
       </c>
@@ -4468,14 +4294,13 @@
         <v>196</v>
       </c>
       <c r="D166" s="3">
+        <v>11</v>
+      </c>
+      <c r="E166" s="3">
         <v>79.8</v>
       </c>
-      <c r="E166" s="3">
-        <v>11</v>
-      </c>
-      <c r="F166" s="5"/>
-    </row>
-    <row r="167" spans="1:6">
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="4" t="s">
         <v>122</v>
       </c>
@@ -4486,14 +4311,13 @@
         <v>196</v>
       </c>
       <c r="D167" s="3">
+        <v>12</v>
+      </c>
+      <c r="E167" s="3">
         <v>79.8</v>
       </c>
-      <c r="E167" s="3">
-        <v>12</v>
-      </c>
-      <c r="F167" s="5"/>
-    </row>
-    <row r="168" spans="1:6">
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="4" t="s">
         <v>30</v>
       </c>
@@ -4504,14 +4328,13 @@
         <v>190</v>
       </c>
       <c r="D168" s="3">
+        <v>7</v>
+      </c>
+      <c r="E168" s="3">
         <v>276.3</v>
       </c>
-      <c r="E168" s="3">
-        <v>7</v>
-      </c>
-      <c r="F168" s="5"/>
-    </row>
-    <row r="169" spans="1:6">
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="4" t="s">
         <v>13</v>
       </c>
@@ -4522,14 +4345,13 @@
         <v>190</v>
       </c>
       <c r="D169" s="3">
+        <v>12</v>
+      </c>
+      <c r="E169" s="3">
         <v>267.3</v>
       </c>
-      <c r="E169" s="3">
-        <v>12</v>
-      </c>
-      <c r="F169" s="5"/>
-    </row>
-    <row r="170" spans="1:6">
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="4" t="s">
         <v>11</v>
       </c>
@@ -4540,14 +4362,13 @@
         <v>190</v>
       </c>
       <c r="D170" s="3">
+        <v>12</v>
+      </c>
+      <c r="E170" s="3">
         <v>263.60000000000002</v>
       </c>
-      <c r="E170" s="3">
-        <v>12</v>
-      </c>
-      <c r="F170" s="5"/>
-    </row>
-    <row r="171" spans="1:6">
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="4" t="s">
         <v>278</v>
       </c>
@@ -4558,14 +4379,13 @@
         <v>194</v>
       </c>
       <c r="D171" s="3">
+        <v>8</v>
+      </c>
+      <c r="E171" s="3">
         <v>25.6</v>
       </c>
-      <c r="E171" s="3">
-        <v>8</v>
-      </c>
-      <c r="F171" s="5"/>
-    </row>
-    <row r="172" spans="1:6">
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="4" t="s">
         <v>279</v>
       </c>
@@ -4576,14 +4396,13 @@
         <v>194</v>
       </c>
       <c r="D172" s="3">
+        <v>6</v>
+      </c>
+      <c r="E172" s="3">
         <v>76.7</v>
       </c>
-      <c r="E172" s="3">
-        <v>6</v>
-      </c>
-      <c r="F172" s="5"/>
-    </row>
-    <row r="173" spans="1:6">
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="4" t="s">
         <v>86</v>
       </c>
@@ -4594,14 +4413,13 @@
         <v>194</v>
       </c>
       <c r="D173" s="3">
+        <v>11</v>
+      </c>
+      <c r="E173" s="3">
         <v>80.400000000000006</v>
       </c>
-      <c r="E173" s="3">
-        <v>11</v>
-      </c>
-      <c r="F173" s="5"/>
-    </row>
-    <row r="174" spans="1:6">
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="4" t="s">
         <v>113</v>
       </c>
@@ -4612,14 +4430,13 @@
         <v>194</v>
       </c>
       <c r="D174" s="3">
+        <v>10</v>
+      </c>
+      <c r="E174" s="3">
         <v>67.099999999999994</v>
       </c>
-      <c r="E174" s="3">
-        <v>10</v>
-      </c>
-      <c r="F174" s="5"/>
-    </row>
-    <row r="175" spans="1:6">
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="4" t="s">
         <v>139</v>
       </c>
@@ -4630,14 +4447,13 @@
         <v>194</v>
       </c>
       <c r="D175" s="3">
+        <v>9</v>
+      </c>
+      <c r="E175" s="3">
         <v>79.900000000000006</v>
       </c>
-      <c r="E175" s="3">
-        <v>9</v>
-      </c>
-      <c r="F175" s="5"/>
-    </row>
-    <row r="176" spans="1:6">
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="4" t="s">
         <v>280</v>
       </c>
@@ -4648,12 +4464,11 @@
         <v>195</v>
       </c>
       <c r="D176" s="3">
+        <v>10</v>
+      </c>
+      <c r="E176" s="3">
         <v>78.3</v>
       </c>
-      <c r="E176" s="3">
-        <v>10</v>
-      </c>
-      <c r="F176" s="5"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="4" t="s">
@@ -4666,12 +4481,11 @@
         <v>195</v>
       </c>
       <c r="D177" s="3">
+        <v>8</v>
+      </c>
+      <c r="E177" s="3">
         <v>82.9</v>
       </c>
-      <c r="E177" s="3">
-        <v>8</v>
-      </c>
-      <c r="F177" s="5"/>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="4" t="s">
@@ -4684,12 +4498,11 @@
         <v>195</v>
       </c>
       <c r="D178" s="3">
+        <v>10</v>
+      </c>
+      <c r="E178" s="3">
         <v>85.7</v>
       </c>
-      <c r="E178" s="3">
-        <v>10</v>
-      </c>
-      <c r="F178" s="5"/>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="4" t="s">
@@ -4702,12 +4515,11 @@
         <v>195</v>
       </c>
       <c r="D179" s="3">
+        <v>12</v>
+      </c>
+      <c r="E179" s="3">
         <v>69</v>
       </c>
-      <c r="E179" s="3">
-        <v>12</v>
-      </c>
-      <c r="F179" s="5"/>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="4" t="s">
@@ -4720,12 +4532,11 @@
         <v>195</v>
       </c>
       <c r="D180" s="3">
+        <v>9</v>
+      </c>
+      <c r="E180" s="3">
         <v>55.1</v>
       </c>
-      <c r="E180" s="3">
-        <v>9</v>
-      </c>
-      <c r="F180" s="5"/>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="4" t="s">
@@ -4738,12 +4549,11 @@
         <v>195</v>
       </c>
       <c r="D181" s="3">
+        <v>12</v>
+      </c>
+      <c r="E181" s="3">
         <v>55.8</v>
       </c>
-      <c r="E181" s="3">
-        <v>12</v>
-      </c>
-      <c r="F181" s="5"/>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="4" t="s">
@@ -4756,12 +4566,11 @@
         <v>195</v>
       </c>
       <c r="D182" s="3">
+        <v>6</v>
+      </c>
+      <c r="E182" s="3">
         <v>32</v>
       </c>
-      <c r="E182" s="3">
-        <v>6</v>
-      </c>
-      <c r="F182" s="5"/>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="4" t="s">
@@ -4774,12 +4583,11 @@
         <v>190</v>
       </c>
       <c r="D183" s="3">
+        <v>6</v>
+      </c>
+      <c r="E183" s="3">
         <v>242.7</v>
       </c>
-      <c r="E183" s="3">
-        <v>6</v>
-      </c>
-      <c r="F183" s="5"/>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="4" t="s">
@@ -4792,12 +4600,11 @@
         <v>196</v>
       </c>
       <c r="D184" s="3">
+        <v>6</v>
+      </c>
+      <c r="E184" s="3">
         <v>67.8</v>
       </c>
-      <c r="E184" s="3">
-        <v>6</v>
-      </c>
-      <c r="F184" s="5"/>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="4" t="s">
@@ -4810,12 +4617,11 @@
         <v>194</v>
       </c>
       <c r="D185" s="3">
+        <v>12</v>
+      </c>
+      <c r="E185" s="3">
         <v>44.3</v>
       </c>
-      <c r="E185" s="3">
-        <v>12</v>
-      </c>
-      <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="4" t="s">
@@ -4828,12 +4634,11 @@
         <v>194</v>
       </c>
       <c r="D186" s="3">
+        <v>12</v>
+      </c>
+      <c r="E186" s="3">
         <v>41.2</v>
       </c>
-      <c r="E186" s="3">
-        <v>12</v>
-      </c>
-      <c r="F186" s="5"/>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="4" t="s">
@@ -4846,12 +4651,11 @@
         <v>194</v>
       </c>
       <c r="D187" s="3">
+        <v>4</v>
+      </c>
+      <c r="E187" s="3">
         <v>52</v>
       </c>
-      <c r="E187" s="3">
-        <v>4</v>
-      </c>
-      <c r="F187" s="5"/>
       <c r="H187" s="2"/>
     </row>
     <row r="188" spans="1:8">
@@ -4865,12 +4669,11 @@
         <v>194</v>
       </c>
       <c r="D188" s="3">
+        <v>7</v>
+      </c>
+      <c r="E188" s="3">
         <v>75</v>
       </c>
-      <c r="E188" s="3">
-        <v>7</v>
-      </c>
-      <c r="F188" s="5"/>
       <c r="H188" s="2"/>
     </row>
     <row r="189" spans="1:8">
@@ -4884,12 +4687,11 @@
         <v>194</v>
       </c>
       <c r="D189" s="3">
+        <v>9</v>
+      </c>
+      <c r="E189" s="3">
         <v>35.700000000000003</v>
       </c>
-      <c r="E189" s="3">
-        <v>9</v>
-      </c>
-      <c r="F189" s="5"/>
       <c r="H189" s="2"/>
     </row>
     <row r="190" spans="1:8" ht="20">
@@ -4903,13 +4705,12 @@
         <v>249</v>
       </c>
       <c r="D190" s="3">
+        <v>10</v>
+      </c>
+      <c r="E190" s="3">
         <v>86.8</v>
       </c>
-      <c r="E190" s="3">
-        <v>10</v>
-      </c>
-      <c r="F190" s="5"/>
-      <c r="H190" s="8"/>
+      <c r="H190" s="7"/>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="3" t="s">
@@ -4922,12 +4723,11 @@
         <v>249</v>
       </c>
       <c r="D191" s="3">
+        <v>10</v>
+      </c>
+      <c r="E191" s="3">
         <v>99</v>
       </c>
-      <c r="E191" s="3">
-        <v>10</v>
-      </c>
-      <c r="F191" s="5"/>
       <c r="H191" s="2"/>
     </row>
     <row r="192" spans="1:8" ht="20">
@@ -4941,13 +4741,12 @@
         <v>197</v>
       </c>
       <c r="D192" s="3">
+        <v>10</v>
+      </c>
+      <c r="E192" s="3">
         <v>134.80000000000001</v>
       </c>
-      <c r="E192" s="3">
-        <v>10</v>
-      </c>
-      <c r="F192" s="5"/>
-      <c r="H192" s="9"/>
+      <c r="H192" s="8"/>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="4" t="s">
@@ -4960,12 +4759,11 @@
         <v>197</v>
       </c>
       <c r="D193" s="3">
+        <v>11</v>
+      </c>
+      <c r="E193" s="3">
         <v>130.6</v>
       </c>
-      <c r="E193" s="3">
-        <v>11</v>
-      </c>
-      <c r="F193" s="5"/>
       <c r="H193" s="2"/>
     </row>
     <row r="194" spans="1:8">
@@ -4979,12 +4777,11 @@
         <v>196</v>
       </c>
       <c r="D194" s="3">
+        <v>4</v>
+      </c>
+      <c r="E194" s="3">
         <v>65.900000000000006</v>
       </c>
-      <c r="E194" s="3">
-        <v>4</v>
-      </c>
-      <c r="F194" s="5"/>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="4" t="s">
@@ -4997,12 +4794,11 @@
         <v>194</v>
       </c>
       <c r="D195" s="3">
+        <v>10</v>
+      </c>
+      <c r="E195" s="3">
         <v>57.7</v>
       </c>
-      <c r="E195" s="3">
-        <v>10</v>
-      </c>
-      <c r="F195" s="5"/>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="4" t="s">
@@ -5015,12 +4811,11 @@
         <v>194</v>
       </c>
       <c r="D196" s="3">
+        <v>6</v>
+      </c>
+      <c r="E196" s="3">
         <v>33.299999999999997</v>
       </c>
-      <c r="E196" s="3">
-        <v>6</v>
-      </c>
-      <c r="F196" s="5"/>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="4" t="s">
@@ -5033,12 +4828,11 @@
         <v>195</v>
       </c>
       <c r="D197" s="3">
+        <v>11</v>
+      </c>
+      <c r="E197" s="3">
         <v>68.7</v>
       </c>
-      <c r="E197" s="3">
-        <v>11</v>
-      </c>
-      <c r="F197" s="5"/>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="4" t="s">
@@ -5051,12 +4845,11 @@
         <v>195</v>
       </c>
       <c r="D198" s="3">
+        <v>10</v>
+      </c>
+      <c r="E198" s="3">
         <v>60.8</v>
       </c>
-      <c r="E198" s="3">
-        <v>10</v>
-      </c>
-      <c r="F198" s="5"/>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="4" t="s">
@@ -5069,12 +4862,11 @@
         <v>195</v>
       </c>
       <c r="D199" s="3">
+        <v>6</v>
+      </c>
+      <c r="E199" s="3">
         <v>53.9</v>
       </c>
-      <c r="E199" s="3">
-        <v>6</v>
-      </c>
-      <c r="F199" s="5"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="4" t="s">
@@ -5087,12 +4879,11 @@
         <v>194</v>
       </c>
       <c r="D200" s="3">
+        <v>5</v>
+      </c>
+      <c r="E200" s="3">
         <v>23</v>
       </c>
-      <c r="E200" s="3">
-        <v>5</v>
-      </c>
-      <c r="F200" s="5"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="4" t="s">
@@ -5105,12 +4896,11 @@
         <v>194</v>
       </c>
       <c r="D201" s="3">
+        <v>5</v>
+      </c>
+      <c r="E201" s="3">
         <v>95</v>
       </c>
-      <c r="E201" s="3">
-        <v>5</v>
-      </c>
-      <c r="F201" s="5"/>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="4" t="s">
@@ -5123,12 +4913,11 @@
         <v>194</v>
       </c>
       <c r="D202" s="3">
+        <v>11</v>
+      </c>
+      <c r="E202" s="3">
         <v>40.1</v>
       </c>
-      <c r="E202" s="3">
-        <v>11</v>
-      </c>
-      <c r="F202" s="5"/>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="4" t="s">
@@ -5141,12 +4930,11 @@
         <v>194</v>
       </c>
       <c r="D203" s="3">
+        <v>10</v>
+      </c>
+      <c r="E203" s="3">
         <v>62.3</v>
       </c>
-      <c r="E203" s="3">
-        <v>10</v>
-      </c>
-      <c r="F203" s="5"/>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="4" t="s">
@@ -5159,12 +4947,11 @@
         <v>194</v>
       </c>
       <c r="D204" s="3">
+        <v>10</v>
+      </c>
+      <c r="E204" s="3">
         <v>75.2</v>
       </c>
-      <c r="E204" s="3">
-        <v>10</v>
-      </c>
-      <c r="F204" s="5"/>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="4" t="s">
@@ -5177,12 +4964,11 @@
         <v>194</v>
       </c>
       <c r="D205" s="3">
+        <v>11</v>
+      </c>
+      <c r="E205" s="3">
         <v>87.1</v>
       </c>
-      <c r="E205" s="3">
-        <v>11</v>
-      </c>
-      <c r="F205" s="5"/>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="4" t="s">
@@ -5195,12 +4981,11 @@
         <v>194</v>
       </c>
       <c r="D206" s="3">
+        <v>9</v>
+      </c>
+      <c r="E206" s="3">
         <v>61.1</v>
       </c>
-      <c r="E206" s="3">
-        <v>9</v>
-      </c>
-      <c r="F206" s="5"/>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="4" t="s">
@@ -5213,12 +4998,11 @@
         <v>194</v>
       </c>
       <c r="D207" s="3">
+        <v>12</v>
+      </c>
+      <c r="E207" s="3">
         <v>46.1</v>
       </c>
-      <c r="E207" s="3">
-        <v>12</v>
-      </c>
-      <c r="F207" s="5"/>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="4" t="s">
@@ -5231,14 +5015,13 @@
         <v>194</v>
       </c>
       <c r="D208" s="3">
+        <v>8</v>
+      </c>
+      <c r="E208" s="3">
         <v>64.099999999999994</v>
       </c>
-      <c r="E208" s="3">
-        <v>8</v>
-      </c>
-      <c r="F208" s="5"/>
-    </row>
-    <row r="209" spans="1:6">
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="4" t="s">
         <v>300</v>
       </c>
@@ -5249,14 +5032,13 @@
         <v>194</v>
       </c>
       <c r="D209" s="3">
+        <v>12</v>
+      </c>
+      <c r="E209" s="3">
         <v>46.9</v>
       </c>
-      <c r="E209" s="3">
-        <v>12</v>
-      </c>
-      <c r="F209" s="5"/>
-    </row>
-    <row r="210" spans="1:6">
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" s="4" t="s">
         <v>165</v>
       </c>
@@ -5267,14 +5049,13 @@
         <v>194</v>
       </c>
       <c r="D210" s="3">
+        <v>6</v>
+      </c>
+      <c r="E210" s="3">
         <v>82.9</v>
       </c>
-      <c r="E210" s="3">
-        <v>6</v>
-      </c>
-      <c r="F210" s="5"/>
-    </row>
-    <row r="211" spans="1:6">
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="4" t="s">
         <v>342</v>
       </c>
@@ -5285,14 +5066,13 @@
         <v>196</v>
       </c>
       <c r="D211" s="3">
+        <v>5</v>
+      </c>
+      <c r="E211" s="3">
         <v>68.7</v>
       </c>
-      <c r="E211" s="3">
-        <v>5</v>
-      </c>
-      <c r="F211" s="5"/>
-    </row>
-    <row r="212" spans="1:6">
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" s="4" t="s">
         <v>301</v>
       </c>
@@ -5303,14 +5083,13 @@
         <v>196</v>
       </c>
       <c r="D212" s="3">
+        <v>6</v>
+      </c>
+      <c r="E212" s="3">
         <v>74.3</v>
       </c>
-      <c r="E212" s="3">
-        <v>6</v>
-      </c>
-      <c r="F212" s="5"/>
-    </row>
-    <row r="213" spans="1:6">
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" s="4" t="s">
         <v>131</v>
       </c>
@@ -5321,14 +5100,13 @@
         <v>190</v>
       </c>
       <c r="D213" s="3">
+        <v>4</v>
+      </c>
+      <c r="E213" s="3">
         <v>239.2</v>
       </c>
-      <c r="E213" s="3">
-        <v>4</v>
-      </c>
-      <c r="F213" s="5"/>
-    </row>
-    <row r="214" spans="1:6">
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" s="4" t="s">
         <v>302</v>
       </c>
@@ -5339,14 +5117,13 @@
         <v>195</v>
       </c>
       <c r="D214" s="3">
+        <v>10</v>
+      </c>
+      <c r="E214" s="3">
         <v>25.4</v>
       </c>
-      <c r="E214" s="3">
-        <v>10</v>
-      </c>
-      <c r="F214" s="5"/>
-    </row>
-    <row r="215" spans="1:6">
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" s="4" t="s">
         <v>169</v>
       </c>
@@ -5357,14 +5134,13 @@
         <v>195</v>
       </c>
       <c r="D215" s="3">
+        <v>6</v>
+      </c>
+      <c r="E215" s="3">
         <v>83.6</v>
       </c>
-      <c r="E215" s="3">
-        <v>6</v>
-      </c>
-      <c r="F215" s="5"/>
-    </row>
-    <row r="216" spans="1:6">
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="4" t="s">
         <v>135</v>
       </c>
@@ -5375,14 +5151,13 @@
         <v>195</v>
       </c>
       <c r="D216" s="3">
+        <v>9</v>
+      </c>
+      <c r="E216" s="3">
         <v>88.1</v>
       </c>
-      <c r="E216" s="3">
-        <v>9</v>
-      </c>
-      <c r="F216" s="5"/>
-    </row>
-    <row r="217" spans="1:6">
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="3" t="s">
         <v>101</v>
       </c>
@@ -5393,14 +5168,13 @@
         <v>195</v>
       </c>
       <c r="D217" s="3">
+        <v>12</v>
+      </c>
+      <c r="E217" s="3">
         <v>47.4</v>
       </c>
-      <c r="E217" s="3">
-        <v>12</v>
-      </c>
-      <c r="F217" s="5"/>
-    </row>
-    <row r="218" spans="1:6">
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="4" t="s">
         <v>100</v>
       </c>
@@ -5411,14 +5185,13 @@
         <v>195</v>
       </c>
       <c r="D218" s="3">
+        <v>8</v>
+      </c>
+      <c r="E218" s="3">
         <v>67.400000000000006</v>
       </c>
-      <c r="E218" s="3">
-        <v>8</v>
-      </c>
-      <c r="F218" s="5"/>
-    </row>
-    <row r="219" spans="1:6">
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="4" t="s">
         <v>303</v>
       </c>
@@ -5429,14 +5202,13 @@
         <v>195</v>
       </c>
       <c r="D219" s="3">
+        <v>10</v>
+      </c>
+      <c r="E219" s="3">
         <v>55.2</v>
       </c>
-      <c r="E219" s="3">
-        <v>10</v>
-      </c>
-      <c r="F219" s="5"/>
-    </row>
-    <row r="220" spans="1:6">
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="4" t="s">
         <v>166</v>
       </c>
@@ -5447,14 +5219,13 @@
         <v>190</v>
       </c>
       <c r="D220" s="3">
+        <v>6</v>
+      </c>
+      <c r="E220" s="3">
         <v>258</v>
       </c>
-      <c r="E220" s="3">
-        <v>6</v>
-      </c>
-      <c r="F220" s="5"/>
-    </row>
-    <row r="221" spans="1:6">
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="4" t="s">
         <v>20</v>
       </c>
@@ -5465,14 +5236,13 @@
         <v>190</v>
       </c>
       <c r="D221" s="3">
+        <v>4</v>
+      </c>
+      <c r="E221" s="3">
         <v>241.8</v>
       </c>
-      <c r="E221" s="3">
-        <v>4</v>
-      </c>
-      <c r="F221" s="5"/>
-    </row>
-    <row r="222" spans="1:6">
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="3" t="s">
         <v>199</v>
       </c>
@@ -5483,14 +5253,13 @@
         <v>249</v>
       </c>
       <c r="D222" s="3">
+        <v>6</v>
+      </c>
+      <c r="E222" s="3">
         <v>94.4</v>
       </c>
-      <c r="E222" s="3">
-        <v>6</v>
-      </c>
-      <c r="F222" s="5"/>
-    </row>
-    <row r="223" spans="1:6">
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" s="3" t="s">
         <v>220</v>
       </c>
@@ -5501,14 +5270,13 @@
         <v>249</v>
       </c>
       <c r="D223" s="3">
+        <v>7</v>
+      </c>
+      <c r="E223" s="3">
         <v>97.3</v>
       </c>
-      <c r="E223" s="3">
-        <v>7</v>
-      </c>
-      <c r="F223" s="5"/>
-    </row>
-    <row r="224" spans="1:6">
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="4" t="s">
         <v>87</v>
       </c>
@@ -5519,14 +5287,13 @@
         <v>197</v>
       </c>
       <c r="D224" s="3">
+        <v>11</v>
+      </c>
+      <c r="E224" s="3">
         <v>128.4</v>
       </c>
-      <c r="E224" s="3">
-        <v>11</v>
-      </c>
-      <c r="F224" s="5"/>
-    </row>
-    <row r="225" spans="1:6">
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" s="4" t="s">
         <v>105</v>
       </c>
@@ -5537,14 +5304,13 @@
         <v>197</v>
       </c>
       <c r="D225" s="3">
+        <v>11</v>
+      </c>
+      <c r="E225" s="3">
         <v>127.3</v>
       </c>
-      <c r="E225" s="3">
-        <v>11</v>
-      </c>
-      <c r="F225" s="5"/>
-    </row>
-    <row r="226" spans="1:6">
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="4" t="s">
         <v>109</v>
       </c>
@@ -5555,14 +5321,13 @@
         <v>195</v>
       </c>
       <c r="D226" s="3">
+        <v>5</v>
+      </c>
+      <c r="E226" s="3">
         <v>76.2</v>
       </c>
-      <c r="E226" s="3">
-        <v>5</v>
-      </c>
-      <c r="F226" s="5"/>
-    </row>
-    <row r="227" spans="1:6">
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="4" t="s">
         <v>304</v>
       </c>
@@ -5573,14 +5338,13 @@
         <v>195</v>
       </c>
       <c r="D227" s="3">
+        <v>6</v>
+      </c>
+      <c r="E227" s="3">
         <v>68.3</v>
       </c>
-      <c r="E227" s="3">
-        <v>6</v>
-      </c>
-      <c r="F227" s="5"/>
-    </row>
-    <row r="228" spans="1:6">
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="4" t="s">
         <v>164</v>
       </c>
@@ -5591,14 +5355,13 @@
         <v>195</v>
       </c>
       <c r="D228" s="3">
+        <v>4</v>
+      </c>
+      <c r="E228" s="3">
         <v>69.400000000000006</v>
       </c>
-      <c r="E228" s="3">
-        <v>4</v>
-      </c>
-      <c r="F228" s="5"/>
-    </row>
-    <row r="229" spans="1:6">
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" s="4" t="s">
         <v>305</v>
       </c>
@@ -5609,14 +5372,13 @@
         <v>195</v>
       </c>
       <c r="D229" s="3">
+        <v>8</v>
+      </c>
+      <c r="E229" s="3">
         <v>64.900000000000006</v>
       </c>
-      <c r="E229" s="3">
-        <v>8</v>
-      </c>
-      <c r="F229" s="5"/>
-    </row>
-    <row r="230" spans="1:6">
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="4" t="s">
         <v>106</v>
       </c>
@@ -5627,14 +5389,13 @@
         <v>195</v>
       </c>
       <c r="D230" s="3">
+        <v>10</v>
+      </c>
+      <c r="E230" s="3">
         <v>73.599999999999994</v>
       </c>
-      <c r="E230" s="3">
-        <v>10</v>
-      </c>
-      <c r="F230" s="5"/>
-    </row>
-    <row r="231" spans="1:6">
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" s="4" t="s">
         <v>306</v>
       </c>
@@ -5645,14 +5406,13 @@
         <v>195</v>
       </c>
       <c r="D231" s="3">
+        <v>10</v>
+      </c>
+      <c r="E231" s="3">
         <v>64</v>
       </c>
-      <c r="E231" s="3">
-        <v>10</v>
-      </c>
-      <c r="F231" s="5"/>
-    </row>
-    <row r="232" spans="1:6">
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="4" t="s">
         <v>120</v>
       </c>
@@ -5663,14 +5423,13 @@
         <v>195</v>
       </c>
       <c r="D232" s="3">
+        <v>10</v>
+      </c>
+      <c r="E232" s="3">
         <v>67.3</v>
       </c>
-      <c r="E232" s="3">
-        <v>10</v>
-      </c>
-      <c r="F232" s="5"/>
-    </row>
-    <row r="233" spans="1:6">
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" s="3" t="s">
         <v>127</v>
       </c>
@@ -5681,14 +5440,13 @@
         <v>195</v>
       </c>
       <c r="D233" s="3">
+        <v>9</v>
+      </c>
+      <c r="E233" s="3">
         <v>62.8</v>
       </c>
-      <c r="E233" s="3">
-        <v>9</v>
-      </c>
-      <c r="F233" s="5"/>
-    </row>
-    <row r="234" spans="1:6">
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" s="4" t="s">
         <v>307</v>
       </c>
@@ -5699,14 +5457,13 @@
         <v>195</v>
       </c>
       <c r="D234" s="3">
+        <v>7</v>
+      </c>
+      <c r="E234" s="3">
         <v>59.3</v>
       </c>
-      <c r="E234" s="3">
-        <v>7</v>
-      </c>
-      <c r="F234" s="5"/>
-    </row>
-    <row r="235" spans="1:6">
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" s="4" t="s">
         <v>308</v>
       </c>
@@ -5717,14 +5474,13 @@
         <v>195</v>
       </c>
       <c r="D235" s="3">
+        <v>6</v>
+      </c>
+      <c r="E235" s="3">
         <v>55.2</v>
       </c>
-      <c r="E235" s="3">
-        <v>6</v>
-      </c>
-      <c r="F235" s="5"/>
-    </row>
-    <row r="236" spans="1:6">
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" s="4" t="s">
         <v>145</v>
       </c>
@@ -5735,14 +5491,13 @@
         <v>194</v>
       </c>
       <c r="D236" s="3">
+        <v>10</v>
+      </c>
+      <c r="E236" s="3">
         <v>38.799999999999997</v>
       </c>
-      <c r="E236" s="3">
-        <v>10</v>
-      </c>
-      <c r="F236" s="5"/>
-    </row>
-    <row r="237" spans="1:6">
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="4" t="s">
         <v>309</v>
       </c>
@@ -5753,14 +5508,13 @@
         <v>194</v>
       </c>
       <c r="D237" s="3">
+        <v>7</v>
+      </c>
+      <c r="E237" s="3">
         <v>42.3</v>
       </c>
-      <c r="E237" s="3">
-        <v>7</v>
-      </c>
-      <c r="F237" s="5"/>
-    </row>
-    <row r="238" spans="1:6">
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" s="4" t="s">
         <v>176</v>
       </c>
@@ -5771,14 +5525,13 @@
         <v>194</v>
       </c>
       <c r="D238" s="3">
+        <v>10</v>
+      </c>
+      <c r="E238" s="3">
         <v>43.6</v>
       </c>
-      <c r="E238" s="3">
-        <v>10</v>
-      </c>
-      <c r="F238" s="5"/>
-    </row>
-    <row r="239" spans="1:6">
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" s="4" t="s">
         <v>310</v>
       </c>
@@ -5789,14 +5542,13 @@
         <v>194</v>
       </c>
       <c r="D239" s="3">
+        <v>7</v>
+      </c>
+      <c r="E239" s="3">
         <v>29</v>
       </c>
-      <c r="E239" s="3">
-        <v>7</v>
-      </c>
-      <c r="F239" s="5"/>
-    </row>
-    <row r="240" spans="1:6">
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="4" t="s">
         <v>152</v>
       </c>
@@ -5807,14 +5559,13 @@
         <v>194</v>
       </c>
       <c r="D240" s="3">
+        <v>6</v>
+      </c>
+      <c r="E240" s="3">
         <v>33.6</v>
       </c>
-      <c r="E240" s="3">
-        <v>6</v>
-      </c>
-      <c r="F240" s="5"/>
-    </row>
-    <row r="241" spans="1:6">
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" s="4" t="s">
         <v>99</v>
       </c>
@@ -5825,14 +5576,13 @@
         <v>194</v>
       </c>
       <c r="D241" s="3">
+        <v>10</v>
+      </c>
+      <c r="E241" s="3">
         <v>45.8</v>
       </c>
-      <c r="E241" s="3">
-        <v>10</v>
-      </c>
-      <c r="F241" s="5"/>
-    </row>
-    <row r="242" spans="1:6">
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" s="4" t="s">
         <v>311</v>
       </c>
@@ -5843,14 +5593,13 @@
         <v>194</v>
       </c>
       <c r="D242" s="3">
+        <v>10</v>
+      </c>
+      <c r="E242" s="3">
         <v>32.5</v>
       </c>
-      <c r="E242" s="3">
-        <v>10</v>
-      </c>
-      <c r="F242" s="5"/>
-    </row>
-    <row r="243" spans="1:6">
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" s="4" t="s">
         <v>129</v>
       </c>
@@ -5861,14 +5610,13 @@
         <v>194</v>
       </c>
       <c r="D243" s="3">
+        <v>4</v>
+      </c>
+      <c r="E243" s="3">
         <v>48.6</v>
       </c>
-      <c r="E243" s="3">
-        <v>4</v>
-      </c>
-      <c r="F243" s="5"/>
-    </row>
-    <row r="244" spans="1:6">
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" s="4" t="s">
         <v>9</v>
       </c>
@@ -5879,14 +5627,13 @@
         <v>190</v>
       </c>
       <c r="D244" s="3">
+        <v>5</v>
+      </c>
+      <c r="E244" s="3">
         <v>241.7</v>
       </c>
-      <c r="E244" s="3">
-        <v>5</v>
-      </c>
-      <c r="F244" s="5"/>
-    </row>
-    <row r="245" spans="1:6">
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" s="4" t="s">
         <v>18</v>
       </c>
@@ -5897,14 +5644,13 @@
         <v>190</v>
       </c>
       <c r="D245" s="3">
+        <v>11</v>
+      </c>
+      <c r="E245" s="3">
         <v>222.5</v>
       </c>
-      <c r="E245" s="3">
-        <v>11</v>
-      </c>
-      <c r="F245" s="5"/>
-    </row>
-    <row r="246" spans="1:6">
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246" s="4" t="s">
         <v>312</v>
       </c>
@@ -5915,14 +5661,13 @@
         <v>190</v>
       </c>
       <c r="D246" s="3">
+        <v>6</v>
+      </c>
+      <c r="E246" s="3">
         <v>260.89999999999998</v>
       </c>
-      <c r="E246" s="3">
-        <v>6</v>
-      </c>
-      <c r="F246" s="5"/>
-    </row>
-    <row r="247" spans="1:6">
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" s="4" t="s">
         <v>313</v>
       </c>
@@ -5933,14 +5678,13 @@
         <v>196</v>
       </c>
       <c r="D247" s="3">
+        <v>10</v>
+      </c>
+      <c r="E247" s="3">
         <v>62.7</v>
       </c>
-      <c r="E247" s="3">
-        <v>10</v>
-      </c>
-      <c r="F247" s="5"/>
-    </row>
-    <row r="248" spans="1:6">
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" s="4" t="s">
         <v>314</v>
       </c>
@@ -5951,14 +5695,13 @@
         <v>196</v>
       </c>
       <c r="D248" s="3">
+        <v>11</v>
+      </c>
+      <c r="E248" s="3">
         <v>68.099999999999994</v>
       </c>
-      <c r="E248" s="3">
-        <v>11</v>
-      </c>
-      <c r="F248" s="5"/>
-    </row>
-    <row r="249" spans="1:6">
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" s="4" t="s">
         <v>315</v>
       </c>
@@ -5969,14 +5712,13 @@
         <v>196</v>
       </c>
       <c r="D249" s="3">
+        <v>10</v>
+      </c>
+      <c r="E249" s="3">
         <v>73.900000000000006</v>
       </c>
-      <c r="E249" s="3">
-        <v>10</v>
-      </c>
-      <c r="F249" s="5"/>
-    </row>
-    <row r="250" spans="1:6">
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" s="4" t="s">
         <v>162</v>
       </c>
@@ -5987,14 +5729,13 @@
         <v>196</v>
       </c>
       <c r="D250" s="3">
+        <v>9</v>
+      </c>
+      <c r="E250" s="3">
         <v>67.5</v>
       </c>
-      <c r="E250" s="3">
-        <v>9</v>
-      </c>
-      <c r="F250" s="5"/>
-    </row>
-    <row r="251" spans="1:6">
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" s="4" t="s">
         <v>316</v>
       </c>
@@ -6005,14 +5746,13 @@
         <v>194</v>
       </c>
       <c r="D251" s="3">
+        <v>7</v>
+      </c>
+      <c r="E251" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="E251" s="3">
-        <v>7</v>
-      </c>
-      <c r="F251" s="5"/>
-    </row>
-    <row r="252" spans="1:6">
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" s="4" t="s">
         <v>317</v>
       </c>
@@ -6023,14 +5763,13 @@
         <v>195</v>
       </c>
       <c r="D252" s="3">
+        <v>10</v>
+      </c>
+      <c r="E252" s="3">
         <v>33.6</v>
       </c>
-      <c r="E252" s="3">
-        <v>10</v>
-      </c>
-      <c r="F252" s="5"/>
-    </row>
-    <row r="253" spans="1:6">
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" s="4" t="s">
         <v>318</v>
       </c>
@@ -6041,14 +5780,13 @@
         <v>195</v>
       </c>
       <c r="D253" s="3">
+        <v>7</v>
+      </c>
+      <c r="E253" s="3">
         <v>40.6</v>
       </c>
-      <c r="E253" s="3">
-        <v>7</v>
-      </c>
-      <c r="F253" s="5"/>
-    </row>
-    <row r="254" spans="1:6">
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254" s="3" t="s">
         <v>204</v>
       </c>
@@ -6059,14 +5797,13 @@
         <v>249</v>
       </c>
       <c r="D254" s="3">
+        <v>8</v>
+      </c>
+      <c r="E254" s="3">
         <v>86</v>
       </c>
-      <c r="E254" s="3">
-        <v>8</v>
-      </c>
-      <c r="F254" s="5"/>
-    </row>
-    <row r="255" spans="1:6">
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255" s="3" t="s">
         <v>213</v>
       </c>
@@ -6077,14 +5814,13 @@
         <v>249</v>
       </c>
       <c r="D255" s="3">
+        <v>7</v>
+      </c>
+      <c r="E255" s="3">
         <v>96</v>
       </c>
-      <c r="E255" s="3">
-        <v>7</v>
-      </c>
-      <c r="F255" s="5"/>
-    </row>
-    <row r="256" spans="1:6">
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" s="4" t="s">
         <v>319</v>
       </c>
@@ -6095,14 +5831,13 @@
         <v>197</v>
       </c>
       <c r="D256" s="3">
+        <v>9</v>
+      </c>
+      <c r="E256" s="3">
         <v>125.3</v>
       </c>
-      <c r="E256" s="3">
-        <v>9</v>
-      </c>
-      <c r="F256" s="5"/>
-    </row>
-    <row r="257" spans="1:6">
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" s="4" t="s">
         <v>84</v>
       </c>
@@ -6113,14 +5848,13 @@
         <v>197</v>
       </c>
       <c r="D257" s="3">
+        <v>6</v>
+      </c>
+      <c r="E257" s="3">
         <v>119.1</v>
       </c>
-      <c r="E257" s="3">
-        <v>6</v>
-      </c>
-      <c r="F257" s="5"/>
-    </row>
-    <row r="258" spans="1:6">
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" s="4" t="s">
         <v>170</v>
       </c>
@@ -6131,14 +5865,13 @@
         <v>196</v>
       </c>
       <c r="D258" s="3">
+        <v>5</v>
+      </c>
+      <c r="E258" s="3">
         <v>59.3</v>
       </c>
-      <c r="E258" s="3">
-        <v>5</v>
-      </c>
-      <c r="F258" s="5"/>
-    </row>
-    <row r="259" spans="1:6">
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" s="4" t="s">
         <v>181</v>
       </c>
@@ -6149,14 +5882,13 @@
         <v>196</v>
       </c>
       <c r="D259" s="3">
+        <v>9</v>
+      </c>
+      <c r="E259" s="3">
         <v>52.8</v>
       </c>
-      <c r="E259" s="3">
-        <v>9</v>
-      </c>
-      <c r="F259" s="5"/>
-    </row>
-    <row r="260" spans="1:6">
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" s="4" t="s">
         <v>320</v>
       </c>
@@ -6167,14 +5899,13 @@
         <v>196</v>
       </c>
       <c r="D260" s="3">
+        <v>8</v>
+      </c>
+      <c r="E260" s="3">
         <v>68.3</v>
       </c>
-      <c r="E260" s="3">
-        <v>8</v>
-      </c>
-      <c r="F260" s="5"/>
-    </row>
-    <row r="261" spans="1:6">
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" s="4" t="s">
         <v>321</v>
       </c>
@@ -6185,14 +5916,13 @@
         <v>195</v>
       </c>
       <c r="D261" s="3">
+        <v>5</v>
+      </c>
+      <c r="E261" s="3">
         <v>55.7</v>
       </c>
-      <c r="E261" s="3">
-        <v>5</v>
-      </c>
-      <c r="F261" s="5"/>
-    </row>
-    <row r="262" spans="1:6">
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262" s="4" t="s">
         <v>322</v>
       </c>
@@ -6203,14 +5933,13 @@
         <v>195</v>
       </c>
       <c r="D262" s="3">
+        <v>6</v>
+      </c>
+      <c r="E262" s="3">
         <v>47.8</v>
       </c>
-      <c r="E262" s="3">
-        <v>6</v>
-      </c>
-      <c r="F262" s="5"/>
-    </row>
-    <row r="263" spans="1:6">
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263" s="4" t="s">
         <v>115</v>
       </c>
@@ -6221,14 +5950,13 @@
         <v>195</v>
       </c>
       <c r="D263" s="3">
+        <v>10</v>
+      </c>
+      <c r="E263" s="3">
         <v>53.7</v>
       </c>
-      <c r="E263" s="3">
-        <v>10</v>
-      </c>
-      <c r="F263" s="5"/>
-    </row>
-    <row r="264" spans="1:6">
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="4" t="s">
         <v>323</v>
       </c>
@@ -6239,14 +5967,13 @@
         <v>195</v>
       </c>
       <c r="D264" s="3">
+        <v>8</v>
+      </c>
+      <c r="E264" s="3">
         <v>51.8</v>
       </c>
-      <c r="E264" s="3">
-        <v>8</v>
-      </c>
-      <c r="F264" s="5"/>
-    </row>
-    <row r="265" spans="1:6">
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" s="4" t="s">
         <v>324</v>
       </c>
@@ -6257,14 +5984,13 @@
         <v>194</v>
       </c>
       <c r="D265" s="3">
+        <v>11</v>
+      </c>
+      <c r="E265" s="3">
         <v>29.7</v>
       </c>
-      <c r="E265" s="3">
-        <v>11</v>
-      </c>
-      <c r="F265" s="5"/>
-    </row>
-    <row r="266" spans="1:6">
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266" s="4" t="s">
         <v>325</v>
       </c>
@@ -6275,14 +6001,13 @@
         <v>194</v>
       </c>
       <c r="D266" s="3">
+        <v>8</v>
+      </c>
+      <c r="E266" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E266" s="3">
-        <v>8</v>
-      </c>
-      <c r="F266" s="5"/>
-    </row>
-    <row r="267" spans="1:6">
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" s="4" t="s">
         <v>23</v>
       </c>
@@ -6293,14 +6018,13 @@
         <v>190</v>
       </c>
       <c r="D267" s="3">
+        <v>9</v>
+      </c>
+      <c r="E267" s="3">
         <v>235.3</v>
       </c>
-      <c r="E267" s="3">
-        <v>9</v>
-      </c>
-      <c r="F267" s="5"/>
-    </row>
-    <row r="268" spans="1:6">
+    </row>
+    <row r="268" spans="1:5">
       <c r="A268" s="4" t="s">
         <v>29</v>
       </c>
@@ -6311,14 +6035,13 @@
         <v>190</v>
       </c>
       <c r="D268" s="3">
+        <v>11</v>
+      </c>
+      <c r="E268" s="3">
         <v>157.9</v>
       </c>
-      <c r="E268" s="3">
-        <v>11</v>
-      </c>
-      <c r="F268" s="5"/>
-    </row>
-    <row r="269" spans="1:6">
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269" s="4" t="s">
         <v>326</v>
       </c>
@@ -6329,14 +6052,13 @@
         <v>190</v>
       </c>
       <c r="D269" s="3">
+        <v>10</v>
+      </c>
+      <c r="E269" s="3">
         <v>194.7</v>
       </c>
-      <c r="E269" s="3">
-        <v>10</v>
-      </c>
-      <c r="F269" s="5"/>
-    </row>
-    <row r="270" spans="1:6">
+    </row>
+    <row r="270" spans="1:5">
       <c r="A270" s="4" t="s">
         <v>41</v>
       </c>
@@ -6347,14 +6069,13 @@
         <v>190</v>
       </c>
       <c r="D270" s="3">
+        <v>10</v>
+      </c>
+      <c r="E270" s="3">
         <v>161.69999999999999</v>
       </c>
-      <c r="E270" s="3">
-        <v>10</v>
-      </c>
-      <c r="F270" s="5"/>
-    </row>
-    <row r="271" spans="1:6">
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" s="4" t="s">
         <v>327</v>
       </c>
@@ -6365,14 +6086,13 @@
         <v>190</v>
       </c>
       <c r="D271" s="3">
+        <v>5</v>
+      </c>
+      <c r="E271" s="3">
         <v>91.5</v>
       </c>
-      <c r="E271" s="3">
-        <v>5</v>
-      </c>
-      <c r="F271" s="5"/>
-    </row>
-    <row r="272" spans="1:6">
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" s="4" t="s">
         <v>328</v>
       </c>
@@ -6383,12 +6103,11 @@
         <v>195</v>
       </c>
       <c r="D272" s="3">
+        <v>7</v>
+      </c>
+      <c r="E272" s="3">
         <v>56.6</v>
       </c>
-      <c r="E272" s="3">
-        <v>7</v>
-      </c>
-      <c r="F272" s="5"/>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="4" t="s">
@@ -6401,12 +6120,11 @@
         <v>195</v>
       </c>
       <c r="D273" s="3">
+        <v>11</v>
+      </c>
+      <c r="E273" s="3">
         <v>24.1</v>
       </c>
-      <c r="E273" s="3">
-        <v>11</v>
-      </c>
-      <c r="F273" s="5"/>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="4" t="s">
@@ -6419,12 +6137,11 @@
         <v>195</v>
       </c>
       <c r="D274" s="3">
+        <v>6</v>
+      </c>
+      <c r="E274" s="3">
         <v>71.599999999999994</v>
       </c>
-      <c r="E274" s="3">
-        <v>6</v>
-      </c>
-      <c r="F274" s="5"/>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="4" t="s">
@@ -6437,12 +6154,11 @@
         <v>195</v>
       </c>
       <c r="D275" s="3">
+        <v>4</v>
+      </c>
+      <c r="E275" s="3">
         <v>46.8</v>
       </c>
-      <c r="E275" s="3">
-        <v>4</v>
-      </c>
-      <c r="F275" s="5"/>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="4" t="s">
@@ -6455,12 +6171,11 @@
         <v>195</v>
       </c>
       <c r="D276" s="3">
+        <v>5</v>
+      </c>
+      <c r="E276" s="3">
         <v>64.599999999999994</v>
       </c>
-      <c r="E276" s="3">
-        <v>5</v>
-      </c>
-      <c r="F276" s="5"/>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="4" t="s">
@@ -6473,12 +6188,11 @@
         <v>194</v>
       </c>
       <c r="D277" s="3">
+        <v>10</v>
+      </c>
+      <c r="E277" s="3">
         <v>47</v>
       </c>
-      <c r="E277" s="3">
-        <v>10</v>
-      </c>
-      <c r="F277" s="5"/>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="4" t="s">
@@ -6491,12 +6205,11 @@
         <v>194</v>
       </c>
       <c r="D278" s="3">
+        <v>6</v>
+      </c>
+      <c r="E278" s="3">
         <v>20</v>
       </c>
-      <c r="E278" s="3">
-        <v>6</v>
-      </c>
-      <c r="F278" s="5"/>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="4" t="s">
@@ -6509,12 +6222,11 @@
         <v>194</v>
       </c>
       <c r="D279" s="3">
+        <v>4</v>
+      </c>
+      <c r="E279" s="3">
         <v>34.9</v>
       </c>
-      <c r="E279" s="3">
-        <v>4</v>
-      </c>
-      <c r="F279" s="5"/>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="4" t="s">
@@ -6527,12 +6239,11 @@
         <v>194</v>
       </c>
       <c r="D280" s="3">
+        <v>10</v>
+      </c>
+      <c r="E280" s="3">
         <v>9.6</v>
       </c>
-      <c r="E280" s="3">
-        <v>10</v>
-      </c>
-      <c r="F280" s="5"/>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="4" t="s">
@@ -6545,12 +6256,11 @@
         <v>194</v>
       </c>
       <c r="D281" s="3">
+        <v>6</v>
+      </c>
+      <c r="E281" s="3">
         <v>22.2</v>
       </c>
-      <c r="E281" s="3">
-        <v>6</v>
-      </c>
-      <c r="F281" s="5"/>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="4" t="s">
@@ -6563,12 +6273,11 @@
         <v>194</v>
       </c>
       <c r="D282" s="3">
+        <v>9</v>
+      </c>
+      <c r="E282" s="3">
         <v>22.9</v>
       </c>
-      <c r="E282" s="3">
-        <v>9</v>
-      </c>
-      <c r="F282" s="5"/>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="4" t="s">
@@ -6581,12 +6290,11 @@
         <v>194</v>
       </c>
       <c r="D283" s="3">
+        <v>7</v>
+      </c>
+      <c r="E283" s="3">
         <v>30.8</v>
       </c>
-      <c r="E283" s="3">
-        <v>7</v>
-      </c>
-      <c r="F283" s="5"/>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="4" t="s">
@@ -6599,12 +6307,11 @@
         <v>194</v>
       </c>
       <c r="D284" s="3">
+        <v>5</v>
+      </c>
+      <c r="E284" s="3">
         <v>28.7</v>
       </c>
-      <c r="E284" s="3">
-        <v>5</v>
-      </c>
-      <c r="F284" s="5"/>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="4" t="s">
@@ -6617,12 +6324,11 @@
         <v>195</v>
       </c>
       <c r="D285" s="3">
+        <v>4</v>
+      </c>
+      <c r="E285" s="3">
         <v>52.4</v>
       </c>
-      <c r="E285" s="3">
-        <v>4</v>
-      </c>
-      <c r="F285" s="5"/>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="3" t="s">
@@ -6635,12 +6341,11 @@
         <v>249</v>
       </c>
       <c r="D286" s="3">
+        <v>7</v>
+      </c>
+      <c r="E286" s="3">
         <v>94.5</v>
       </c>
-      <c r="E286" s="3">
-        <v>7</v>
-      </c>
-      <c r="F286" s="5"/>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="3" t="s">
@@ -6653,12 +6358,11 @@
         <v>249</v>
       </c>
       <c r="D287" s="3">
+        <v>10</v>
+      </c>
+      <c r="E287" s="3">
         <v>86.3</v>
       </c>
-      <c r="E287" s="3">
-        <v>10</v>
-      </c>
-      <c r="F287" s="5"/>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="4" t="s">
@@ -6671,15 +6375,14 @@
         <v>197</v>
       </c>
       <c r="D288" s="3">
+        <v>7</v>
+      </c>
+      <c r="E288" s="3">
         <v>123.1</v>
       </c>
-      <c r="E288" s="3">
-        <v>7</v>
-      </c>
-      <c r="F288" s="5"/>
       <c r="G288" s="1"/>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:5">
       <c r="A289" s="4" t="s">
         <v>335</v>
       </c>
@@ -6690,14 +6393,13 @@
         <v>197</v>
       </c>
       <c r="D289" s="3">
+        <v>11</v>
+      </c>
+      <c r="E289" s="3">
         <v>118.8</v>
       </c>
-      <c r="E289" s="3">
-        <v>11</v>
-      </c>
-      <c r="F289" s="5"/>
-    </row>
-    <row r="290" spans="1:6">
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" s="4" t="s">
         <v>157</v>
       </c>
@@ -6708,14 +6410,13 @@
         <v>196</v>
       </c>
       <c r="D290" s="3">
+        <v>10</v>
+      </c>
+      <c r="E290" s="3">
         <v>41.2</v>
       </c>
-      <c r="E290" s="3">
-        <v>10</v>
-      </c>
-      <c r="F290" s="5"/>
-    </row>
-    <row r="291" spans="1:6">
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" s="4" t="s">
         <v>336</v>
       </c>
@@ -6726,14 +6427,13 @@
         <v>196</v>
       </c>
       <c r="D291" s="3">
+        <v>10</v>
+      </c>
+      <c r="E291" s="3">
         <v>26.2</v>
       </c>
-      <c r="E291" s="3">
-        <v>10</v>
-      </c>
-      <c r="F291" s="5"/>
-    </row>
-    <row r="292" spans="1:6">
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" s="4" t="s">
         <v>337</v>
       </c>
@@ -6744,14 +6444,13 @@
         <v>196</v>
       </c>
       <c r="D292" s="3">
+        <v>10</v>
+      </c>
+      <c r="E292" s="3">
         <v>42.4</v>
       </c>
-      <c r="E292" s="3">
-        <v>10</v>
-      </c>
-      <c r="F292" s="5"/>
-    </row>
-    <row r="293" spans="1:6">
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" s="4" t="s">
         <v>183</v>
       </c>
@@ -6762,14 +6461,13 @@
         <v>196</v>
       </c>
       <c r="D293" s="3">
+        <v>8</v>
+      </c>
+      <c r="E293" s="3">
         <v>39.1</v>
       </c>
-      <c r="E293" s="3">
-        <v>8</v>
-      </c>
-      <c r="F293" s="5"/>
-    </row>
-    <row r="294" spans="1:6">
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" s="4" t="s">
         <v>338</v>
       </c>
@@ -6780,14 +6478,13 @@
         <v>196</v>
       </c>
       <c r="D294" s="3">
+        <v>6</v>
+      </c>
+      <c r="E294" s="3">
         <v>33.6</v>
       </c>
-      <c r="E294" s="3">
-        <v>6</v>
-      </c>
-      <c r="F294" s="5"/>
-    </row>
-    <row r="295" spans="1:6">
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" s="4" t="s">
         <v>339</v>
       </c>
@@ -6798,14 +6495,13 @@
         <v>195</v>
       </c>
       <c r="D295" s="3">
+        <v>7</v>
+      </c>
+      <c r="E295" s="3">
         <v>37</v>
       </c>
-      <c r="E295" s="3">
-        <v>7</v>
-      </c>
-      <c r="F295" s="5"/>
-    </row>
-    <row r="296" spans="1:6">
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" s="4" t="s">
         <v>340</v>
       </c>
@@ -6816,14 +6512,13 @@
         <v>195</v>
       </c>
       <c r="D296" s="3">
+        <v>9</v>
+      </c>
+      <c r="E296" s="3">
         <v>28</v>
       </c>
-      <c r="E296" s="3">
-        <v>9</v>
-      </c>
-      <c r="F296" s="5"/>
-    </row>
-    <row r="297" spans="1:6">
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" s="4" t="s">
         <v>28</v>
       </c>
@@ -6834,14 +6529,13 @@
         <v>190</v>
       </c>
       <c r="D297" s="3">
+        <v>10</v>
+      </c>
+      <c r="E297" s="3">
         <v>99.9</v>
       </c>
-      <c r="E297" s="3">
-        <v>10</v>
-      </c>
-      <c r="F297" s="5"/>
-    </row>
-    <row r="298" spans="1:6">
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" s="3" t="s">
         <v>219</v>
       </c>
@@ -6852,14 +6546,13 @@
         <v>249</v>
       </c>
       <c r="D298" s="3">
+        <v>12</v>
+      </c>
+      <c r="E298" s="3">
         <v>87.3</v>
       </c>
-      <c r="E298" s="3">
-        <v>12</v>
-      </c>
-      <c r="F298" s="5"/>
-    </row>
-    <row r="299" spans="1:6">
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" s="3" t="s">
         <v>217</v>
       </c>
@@ -6870,14 +6563,13 @@
         <v>249</v>
       </c>
       <c r="D299" s="3">
+        <v>8</v>
+      </c>
+      <c r="E299" s="3">
         <v>80.900000000000006</v>
       </c>
-      <c r="E299" s="3">
-        <v>8</v>
-      </c>
-      <c r="F299" s="5"/>
-    </row>
-    <row r="300" spans="1:6">
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" s="3" t="s">
         <v>209</v>
       </c>
@@ -6888,14 +6580,13 @@
         <v>249</v>
       </c>
       <c r="D300" s="3">
+        <v>12</v>
+      </c>
+      <c r="E300" s="3">
         <v>83</v>
       </c>
-      <c r="E300" s="3">
-        <v>12</v>
-      </c>
-      <c r="F300" s="5"/>
-    </row>
-    <row r="301" spans="1:6">
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" s="3" t="s">
         <v>212</v>
       </c>
@@ -6906,12 +6597,11 @@
         <v>249</v>
       </c>
       <c r="D301" s="3">
+        <v>5</v>
+      </c>
+      <c r="E301" s="3">
         <v>84.1</v>
       </c>
-      <c r="E301" s="3">
-        <v>5</v>
-      </c>
-      <c r="F301" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
